--- a/data/expected_death_inla0_69_1890.xlsx
+++ b/data/expected_death_inla0_69_1890.xlsx
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>118.01300357001</v>
+        <v>118.207085052919</v>
       </c>
       <c r="D2" t="n">
-        <v>105.960443162181</v>
+        <v>103.213009490831</v>
       </c>
       <c r="E2" t="n">
-        <v>130.4560035181</v>
+        <v>136.226166554244</v>
       </c>
       <c r="F2" t="n">
         <v>1890</v>
@@ -853,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>95.0960769917353</v>
+        <v>92.7685777366133</v>
       </c>
       <c r="D3" t="n">
-        <v>85.5953780531596</v>
+        <v>81.1687140114166</v>
       </c>
       <c r="E3" t="n">
-        <v>106.69215342148</v>
+        <v>107.969454164518</v>
       </c>
       <c r="F3" t="n">
         <v>1890</v>
@@ -891,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>323.910846089821</v>
+        <v>314.240249708018</v>
       </c>
       <c r="D4" t="n">
-        <v>302.414808217939</v>
+        <v>279.610828559675</v>
       </c>
       <c r="E4" t="n">
-        <v>347.763369379648</v>
+        <v>353.244786576351</v>
       </c>
       <c r="F4" t="n">
         <v>1890</v>
@@ -929,13 +929,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1783.95362469253</v>
+        <v>1782.11107330973</v>
       </c>
       <c r="D5" t="n">
-        <v>1719.68594816433</v>
+        <v>1597.6551212924</v>
       </c>
       <c r="E5" t="n">
-        <v>1861.9448818599</v>
+        <v>1994.42279136018</v>
       </c>
       <c r="F5" t="n">
         <v>1890</v>
@@ -967,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>280.867111781108</v>
+        <v>283.397247743688</v>
       </c>
       <c r="D6" t="n">
-        <v>261.071829692093</v>
+        <v>251.597119341524</v>
       </c>
       <c r="E6" t="n">
-        <v>300.824817060027</v>
+        <v>320.178545203847</v>
       </c>
       <c r="F6" t="n">
         <v>1890</v>
@@ -1005,13 +1005,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1347.05251533189</v>
+        <v>1339.12322484533</v>
       </c>
       <c r="D7" t="n">
-        <v>1294.10534905745</v>
+        <v>1201.38904224425</v>
       </c>
       <c r="E7" t="n">
-        <v>1405.12174524292</v>
+        <v>1507.74791617748</v>
       </c>
       <c r="F7" t="n">
         <v>1890</v>
@@ -1043,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>381.328709547673</v>
+        <v>380.083575499917</v>
       </c>
       <c r="D8" t="n">
-        <v>356.394482886847</v>
+        <v>337.454629521401</v>
       </c>
       <c r="E8" t="n">
-        <v>408.089763420504</v>
+        <v>431.016278854597</v>
       </c>
       <c r="F8" t="n">
         <v>1890</v>
@@ -1081,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>173.044031383856</v>
+        <v>178.14526076775</v>
       </c>
       <c r="D9" t="n">
-        <v>159.176392870009</v>
+        <v>155.209591163924</v>
       </c>
       <c r="E9" t="n">
-        <v>187.835386600676</v>
+        <v>201.797083153134</v>
       </c>
       <c r="F9" t="n">
         <v>1890</v>
@@ -1119,13 +1119,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>210.88148913672</v>
+        <v>214.031914232367</v>
       </c>
       <c r="D10" t="n">
-        <v>194.222166746255</v>
+        <v>188.802913818308</v>
       </c>
       <c r="E10" t="n">
-        <v>229.352159790289</v>
+        <v>241.811320542598</v>
       </c>
       <c r="F10" t="n">
         <v>1890</v>
@@ -1157,13 +1157,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>141.459944960754</v>
+        <v>141.842576368033</v>
       </c>
       <c r="D11" t="n">
-        <v>128.363554393446</v>
+        <v>123.51038723455</v>
       </c>
       <c r="E11" t="n">
-        <v>156.496962452794</v>
+        <v>162.248820260203</v>
       </c>
       <c r="F11" t="n">
         <v>1890</v>
@@ -1195,13 +1195,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>178.613699199384</v>
+        <v>177.01688981136</v>
       </c>
       <c r="D12" t="n">
-        <v>163.061677256125</v>
+        <v>154.724843651666</v>
       </c>
       <c r="E12" t="n">
-        <v>194.404062570292</v>
+        <v>202.016754995234</v>
       </c>
       <c r="F12" t="n">
         <v>1890</v>
@@ -1233,13 +1233,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>309.049091663193</v>
+        <v>300.259971268461</v>
       </c>
       <c r="D13" t="n">
-        <v>288.874580283551</v>
+        <v>264.511683784644</v>
       </c>
       <c r="E13" t="n">
-        <v>332.532388938935</v>
+        <v>341.052575312396</v>
       </c>
       <c r="F13" t="n">
         <v>1890</v>
@@ -1271,13 +1271,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>170.433551107268</v>
+        <v>172.590343730766</v>
       </c>
       <c r="D14" t="n">
-        <v>156.172215268578</v>
+        <v>151.066764688946</v>
       </c>
       <c r="E14" t="n">
-        <v>186.905858841504</v>
+        <v>199.120213091749</v>
       </c>
       <c r="F14" t="n">
         <v>1890</v>
@@ -1309,13 +1309,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>109.937736255593</v>
+        <v>110.094513873515</v>
       </c>
       <c r="D15" t="n">
-        <v>99.5595565695564</v>
+        <v>95.3941442772689</v>
       </c>
       <c r="E15" t="n">
-        <v>121.5112525578</v>
+        <v>126.394245256789</v>
       </c>
       <c r="F15" t="n">
         <v>1890</v>
@@ -1347,13 +1347,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>296.007811855293</v>
+        <v>297.328188196624</v>
       </c>
       <c r="D16" t="n">
-        <v>275.559364419498</v>
+        <v>263.697404613391</v>
       </c>
       <c r="E16" t="n">
-        <v>316.946126560585</v>
+        <v>334.757899569242</v>
       </c>
       <c r="F16" t="n">
         <v>1890</v>
@@ -1385,13 +1385,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>502.113979205674</v>
+        <v>503.17370671524</v>
       </c>
       <c r="D17" t="n">
-        <v>474.526969380796</v>
+        <v>449.366109073502</v>
       </c>
       <c r="E17" t="n">
-        <v>531.917792787614</v>
+        <v>566.799250178312</v>
       </c>
       <c r="F17" t="n">
         <v>1890</v>
@@ -1423,13 +1423,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>249.913308723029</v>
+        <v>249.529551287265</v>
       </c>
       <c r="D18" t="n">
-        <v>231.67895309284</v>
+        <v>219.454345879174</v>
       </c>
       <c r="E18" t="n">
-        <v>268.694669147113</v>
+        <v>283.448216062445</v>
       </c>
       <c r="F18" t="n">
         <v>1890</v>
@@ -1461,13 +1461,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>98.6277243822163</v>
+        <v>97.8123055036538</v>
       </c>
       <c r="D19" t="n">
-        <v>87.4249087961374</v>
+        <v>84.184464934368</v>
       </c>
       <c r="E19" t="n">
-        <v>109.810708268803</v>
+        <v>113.341274865282</v>
       </c>
       <c r="F19" t="n">
         <v>1890</v>
@@ -1499,13 +1499,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>164.652570480282</v>
+        <v>164.325674846723</v>
       </c>
       <c r="D20" t="n">
-        <v>150.861177444356</v>
+        <v>145.617370549967</v>
       </c>
       <c r="E20" t="n">
-        <v>179.767219301013</v>
+        <v>187.821240219058</v>
       </c>
       <c r="F20" t="n">
         <v>1890</v>
@@ -1537,13 +1537,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>176.791360066201</v>
+        <v>178.133364806626</v>
       </c>
       <c r="D21" t="n">
-        <v>162.297922009708</v>
+        <v>157.02968537963</v>
       </c>
       <c r="E21" t="n">
-        <v>192.703748940895</v>
+        <v>201.597143416729</v>
       </c>
       <c r="F21" t="n">
         <v>1890</v>
@@ -1575,13 +1575,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>233.285549823756</v>
+        <v>237.536858727914</v>
       </c>
       <c r="D22" t="n">
-        <v>215.735917460331</v>
+        <v>208.370716771781</v>
       </c>
       <c r="E22" t="n">
-        <v>253.63363783585</v>
+        <v>269.345438709191</v>
       </c>
       <c r="F22" t="n">
         <v>1890</v>
@@ -1613,13 +1613,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>239.842268342896</v>
+        <v>243.308125965997</v>
       </c>
       <c r="D23" t="n">
-        <v>221.411779723674</v>
+        <v>213.956688604001</v>
       </c>
       <c r="E23" t="n">
-        <v>258.39842213565</v>
+        <v>274.666467921661</v>
       </c>
       <c r="F23" t="n">
         <v>1890</v>
@@ -1651,13 +1651,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>289.909632291114</v>
+        <v>287.325544853929</v>
       </c>
       <c r="D24" t="n">
-        <v>270.548074646637</v>
+        <v>253.912738286818</v>
       </c>
       <c r="E24" t="n">
-        <v>310.426252877904</v>
+        <v>324.833119214006</v>
       </c>
       <c r="F24" t="n">
         <v>1890</v>
@@ -1689,13 +1689,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>249.883930616893</v>
+        <v>252.27810574037</v>
       </c>
       <c r="D25" t="n">
-        <v>232.147664753793</v>
+        <v>222.855402287036</v>
       </c>
       <c r="E25" t="n">
-        <v>268.988603493769</v>
+        <v>288.372896446421</v>
       </c>
       <c r="F25" t="n">
         <v>1890</v>
@@ -1727,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>196.151196411066</v>
+        <v>195.062466535306</v>
       </c>
       <c r="D26" t="n">
-        <v>179.338394753827</v>
+        <v>171.1109770363</v>
       </c>
       <c r="E26" t="n">
-        <v>213.295413681507</v>
+        <v>223.168663129496</v>
       </c>
       <c r="F26" t="n">
         <v>1890</v>
@@ -1765,13 +1765,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>296.837271230086</v>
+        <v>293.24548743546</v>
       </c>
       <c r="D27" t="n">
-        <v>276.956597676529</v>
+        <v>261.70311539245</v>
       </c>
       <c r="E27" t="n">
-        <v>317.84247800646</v>
+        <v>334.3584737084</v>
       </c>
       <c r="F27" t="n">
         <v>1890</v>
@@ -1803,13 +1803,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>133.45769985867</v>
+        <v>130.641035941103</v>
       </c>
       <c r="D28" t="n">
-        <v>121.329063185509</v>
+        <v>114.610985670706</v>
       </c>
       <c r="E28" t="n">
-        <v>146.744303198894</v>
+        <v>149.807428883813</v>
       </c>
       <c r="F28" t="n">
         <v>1890</v>
@@ -1841,13 +1841,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>104.542043074547</v>
+        <v>106.449932093202</v>
       </c>
       <c r="D29" t="n">
-        <v>93.0940596731395</v>
+        <v>92.0786865112595</v>
       </c>
       <c r="E29" t="n">
-        <v>116.450442750902</v>
+        <v>122.568683309578</v>
       </c>
       <c r="F29" t="n">
         <v>1890</v>
@@ -1879,13 +1879,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>136.451592149099</v>
+        <v>135.311716641566</v>
       </c>
       <c r="D30" t="n">
-        <v>124.250946143945</v>
+        <v>117.977408340642</v>
       </c>
       <c r="E30" t="n">
-        <v>149.528705122658</v>
+        <v>157.725955605964</v>
       </c>
       <c r="F30" t="n">
         <v>1890</v>
@@ -1917,13 +1917,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>1111.72817864874</v>
+        <v>1092.90833133603</v>
       </c>
       <c r="D31" t="n">
-        <v>1065.61595417777</v>
+        <v>987.816848793859</v>
       </c>
       <c r="E31" t="n">
-        <v>1160.29267177033</v>
+        <v>1231.17154814428</v>
       </c>
       <c r="F31" t="n">
         <v>1890</v>
@@ -1955,13 +1955,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>292.829568371571</v>
+        <v>287.627168725018</v>
       </c>
       <c r="D32" t="n">
-        <v>271.479978454646</v>
+        <v>255.379029168312</v>
       </c>
       <c r="E32" t="n">
-        <v>314.220364433976</v>
+        <v>326.477928513916</v>
       </c>
       <c r="F32" t="n">
         <v>1890</v>
@@ -1993,13 +1993,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>108.312496075385</v>
+        <v>107.387485443397</v>
       </c>
       <c r="D33" t="n">
-        <v>96.1062391955197</v>
+        <v>93.4240937411415</v>
       </c>
       <c r="E33" t="n">
-        <v>120.464445991588</v>
+        <v>124.382314839093</v>
       </c>
       <c r="F33" t="n">
         <v>1890</v>
@@ -2031,13 +2031,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>528.479278353655</v>
+        <v>532.186497468033</v>
       </c>
       <c r="D34" t="n">
-        <v>499.990329079972</v>
+        <v>468.017189959296</v>
       </c>
       <c r="E34" t="n">
-        <v>558.127944615982</v>
+        <v>601.093130328647</v>
       </c>
       <c r="F34" t="n">
         <v>1890</v>
@@ -2069,13 +2069,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>137.245820525324</v>
+        <v>136.166508444526</v>
       </c>
       <c r="D35" t="n">
-        <v>124.067825830062</v>
+        <v>118.476265167224</v>
       </c>
       <c r="E35" t="n">
-        <v>149.7903231221</v>
+        <v>157.364124473647</v>
       </c>
       <c r="F35" t="n">
         <v>1890</v>
@@ -2107,13 +2107,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>374.303298041465</v>
+        <v>381.507064579941</v>
       </c>
       <c r="D36" t="n">
-        <v>352.031461156513</v>
+        <v>339.345630349113</v>
       </c>
       <c r="E36" t="n">
-        <v>399.987805010334</v>
+        <v>432.309495369073</v>
       </c>
       <c r="F36" t="n">
         <v>1890</v>
@@ -2145,13 +2145,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>138.332683950477</v>
+        <v>139.595748510011</v>
       </c>
       <c r="D37" t="n">
-        <v>124.975559259787</v>
+        <v>121.875877298863</v>
       </c>
       <c r="E37" t="n">
-        <v>151.419394163652</v>
+        <v>159.686664797399</v>
       </c>
       <c r="F37" t="n">
         <v>1890</v>
@@ -2183,13 +2183,13 @@
         <v>38</v>
       </c>
       <c r="C38" t="n">
-        <v>353.286215426774</v>
+        <v>350.940142327679</v>
       </c>
       <c r="D38" t="n">
-        <v>329.375475592655</v>
+        <v>309.135060446477</v>
       </c>
       <c r="E38" t="n">
-        <v>377.017115666068</v>
+        <v>400.36432172913</v>
       </c>
       <c r="F38" t="n">
         <v>1890</v>
@@ -2221,13 +2221,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="n">
-        <v>502.967701996374</v>
+        <v>508.317262526585</v>
       </c>
       <c r="D39" t="n">
-        <v>473.49161205225</v>
+        <v>455.129020762764</v>
       </c>
       <c r="E39" t="n">
-        <v>531.546424722542</v>
+        <v>573.288947596574</v>
       </c>
       <c r="F39" t="n">
         <v>1890</v>
@@ -2259,13 +2259,13 @@
         <v>41</v>
       </c>
       <c r="C40" t="n">
-        <v>198.384456143556</v>
+        <v>198.605122434689</v>
       </c>
       <c r="D40" t="n">
-        <v>183.007168093348</v>
+        <v>174.8770333761</v>
       </c>
       <c r="E40" t="n">
-        <v>216.051762901297</v>
+        <v>226.144812500861</v>
       </c>
       <c r="F40" t="n">
         <v>1890</v>
@@ -2297,13 +2297,13 @@
         <v>42</v>
       </c>
       <c r="C41" t="n">
-        <v>82.149938216705</v>
+        <v>79.9889909508451</v>
       </c>
       <c r="D41" t="n">
-        <v>73.7110882976783</v>
+        <v>69.3135560397037</v>
       </c>
       <c r="E41" t="n">
-        <v>92.8017598515585</v>
+        <v>92.3578065852745</v>
       </c>
       <c r="F41" t="n">
         <v>1890</v>
@@ -2335,13 +2335,13 @@
         <v>43</v>
       </c>
       <c r="C42" t="n">
-        <v>351.975125409859</v>
+        <v>350.449517828146</v>
       </c>
       <c r="D42" t="n">
-        <v>329.84582457175</v>
+        <v>312.114686504864</v>
       </c>
       <c r="E42" t="n">
-        <v>375.004458970298</v>
+        <v>399.368853644101</v>
       </c>
       <c r="F42" t="n">
         <v>1890</v>
@@ -2373,13 +2373,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="n">
-        <v>107.711855289395</v>
+        <v>107.970325001023</v>
       </c>
       <c r="D43" t="n">
-        <v>97.5009415119327</v>
+        <v>93.9391210755439</v>
       </c>
       <c r="E43" t="n">
-        <v>119.36296825552</v>
+        <v>124.979789960171</v>
       </c>
       <c r="F43" t="n">
         <v>1890</v>
@@ -2411,13 +2411,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="n">
-        <v>305.57986036481</v>
+        <v>305.375780095099</v>
       </c>
       <c r="D44" t="n">
-        <v>286.857071055506</v>
+        <v>270.971913411657</v>
       </c>
       <c r="E44" t="n">
-        <v>328.38423841122</v>
+        <v>345.649606691355</v>
       </c>
       <c r="F44" t="n">
         <v>1890</v>
@@ -2449,13 +2449,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="n">
-        <v>216.943127497622</v>
+        <v>217.091454426057</v>
       </c>
       <c r="D45" t="n">
-        <v>199.860854221504</v>
+        <v>191.444470209459</v>
       </c>
       <c r="E45" t="n">
-        <v>233.954724713005</v>
+        <v>246.769080208159</v>
       </c>
       <c r="F45" t="n">
         <v>1890</v>
@@ -2487,13 +2487,13 @@
         <v>47</v>
       </c>
       <c r="C46" t="n">
-        <v>202.92299857352</v>
+        <v>206.015221210255</v>
       </c>
       <c r="D46" t="n">
-        <v>185.916267137795</v>
+        <v>181.504113963846</v>
       </c>
       <c r="E46" t="n">
-        <v>221.054822596504</v>
+        <v>233.715249962109</v>
       </c>
       <c r="F46" t="n">
         <v>1890</v>
@@ -2525,13 +2525,13 @@
         <v>48</v>
       </c>
       <c r="C47" t="n">
-        <v>644.485082690603</v>
+        <v>636.338224113107</v>
       </c>
       <c r="D47" t="n">
-        <v>611.617470307584</v>
+        <v>569.11824528695</v>
       </c>
       <c r="E47" t="n">
-        <v>679.821860308451</v>
+        <v>712.55776353224</v>
       </c>
       <c r="F47" t="n">
         <v>1890</v>
@@ -2563,13 +2563,13 @@
         <v>49</v>
       </c>
       <c r="C48" t="n">
-        <v>246.662881826462</v>
+        <v>244.021494063182</v>
       </c>
       <c r="D48" t="n">
-        <v>228.912234116011</v>
+        <v>215.776107690128</v>
       </c>
       <c r="E48" t="n">
-        <v>265.849595974365</v>
+        <v>278.591721296065</v>
       </c>
       <c r="F48" t="n">
         <v>1890</v>
@@ -2601,13 +2601,13 @@
         <v>50</v>
       </c>
       <c r="C49" t="n">
-        <v>256.377087429371</v>
+        <v>258.207723520077</v>
       </c>
       <c r="D49" t="n">
-        <v>237.593180982602</v>
+        <v>226.982802803289</v>
       </c>
       <c r="E49" t="n">
-        <v>276.234266870579</v>
+        <v>293.174228425696</v>
       </c>
       <c r="F49" t="n">
         <v>1890</v>
@@ -2639,13 +2639,13 @@
         <v>51</v>
       </c>
       <c r="C50" t="n">
-        <v>233.197035146493</v>
+        <v>234.486403252787</v>
       </c>
       <c r="D50" t="n">
-        <v>214.012324806858</v>
+        <v>205.251990373332</v>
       </c>
       <c r="E50" t="n">
-        <v>252.939450946449</v>
+        <v>266.144292082813</v>
       </c>
       <c r="F50" t="n">
         <v>1890</v>
@@ -2677,13 +2677,13 @@
         <v>52</v>
       </c>
       <c r="C51" t="n">
-        <v>80.2939644652336</v>
+        <v>80.5158853738238</v>
       </c>
       <c r="D51" t="n">
-        <v>71.3786428286075</v>
+        <v>69.1152633525262</v>
       </c>
       <c r="E51" t="n">
-        <v>89.3692757913937</v>
+        <v>95.8671239350628</v>
       </c>
       <c r="F51" t="n">
         <v>1890</v>
@@ -2715,13 +2715,13 @@
         <v>53</v>
       </c>
       <c r="C52" t="n">
-        <v>68.9603327295793</v>
+        <v>69.1319545481384</v>
       </c>
       <c r="D52" t="n">
-        <v>61.0473526922321</v>
+        <v>58.8131556106735</v>
       </c>
       <c r="E52" t="n">
-        <v>78.3827123061057</v>
+        <v>80.5910512834434</v>
       </c>
       <c r="F52" t="n">
         <v>1890</v>
@@ -2753,13 +2753,13 @@
         <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>846.119685538885</v>
+        <v>846.150085539465</v>
       </c>
       <c r="D53" t="n">
-        <v>806.607819046019</v>
+        <v>757.338963291051</v>
       </c>
       <c r="E53" t="n">
-        <v>885.15200237302</v>
+        <v>948.541493644098</v>
       </c>
       <c r="F53" t="n">
         <v>1890</v>
@@ -2791,13 +2791,13 @@
         <v>55</v>
       </c>
       <c r="C54" t="n">
-        <v>416.787922913025</v>
+        <v>406.036245037206</v>
       </c>
       <c r="D54" t="n">
-        <v>391.29111972968</v>
+        <v>362.660716367038</v>
       </c>
       <c r="E54" t="n">
-        <v>441.812393820296</v>
+        <v>463.735713192453</v>
       </c>
       <c r="F54" t="n">
         <v>1890</v>
@@ -2829,13 +2829,13 @@
         <v>56</v>
       </c>
       <c r="C55" t="n">
-        <v>769.432534033755</v>
+        <v>771.619845959752</v>
       </c>
       <c r="D55" t="n">
-        <v>731.313841633796</v>
+        <v>688.595978634361</v>
       </c>
       <c r="E55" t="n">
-        <v>807.554287075714</v>
+        <v>868.691221170561</v>
       </c>
       <c r="F55" t="n">
         <v>1890</v>
@@ -2867,13 +2867,13 @@
         <v>57</v>
       </c>
       <c r="C56" t="n">
-        <v>1121.8262949551</v>
+        <v>1136.60609414767</v>
       </c>
       <c r="D56" t="n">
-        <v>1074.52034943386</v>
+        <v>1020.35353279319</v>
       </c>
       <c r="E56" t="n">
-        <v>1174.86689725336</v>
+        <v>1271.63141383935</v>
       </c>
       <c r="F56" t="n">
         <v>1890</v>
@@ -2905,13 +2905,13 @@
         <v>58</v>
       </c>
       <c r="C57" t="n">
-        <v>556.01455749192</v>
+        <v>537.126202522723</v>
       </c>
       <c r="D57" t="n">
-        <v>525.093860395937</v>
+        <v>479.153430952616</v>
       </c>
       <c r="E57" t="n">
-        <v>587.077197033521</v>
+        <v>601.099328390205</v>
       </c>
       <c r="F57" t="n">
         <v>1890</v>
@@ -2943,13 +2943,13 @@
         <v>59</v>
       </c>
       <c r="C58" t="n">
-        <v>260.346059589348</v>
+        <v>267.185980698719</v>
       </c>
       <c r="D58" t="n">
-        <v>241.616228048047</v>
+        <v>236.84004384446</v>
       </c>
       <c r="E58" t="n">
-        <v>280.159261539111</v>
+        <v>300.694267447971</v>
       </c>
       <c r="F58" t="n">
         <v>1890</v>
@@ -2981,13 +2981,13 @@
         <v>60</v>
       </c>
       <c r="C59" t="n">
-        <v>178.894896618011</v>
+        <v>178.332252297262</v>
       </c>
       <c r="D59" t="n">
-        <v>164.09315184726</v>
+        <v>155.745849612202</v>
       </c>
       <c r="E59" t="n">
-        <v>193.816897773872</v>
+        <v>204.507161457179</v>
       </c>
       <c r="F59" t="n">
         <v>1890</v>
@@ -3019,13 +3019,13 @@
         <v>61</v>
       </c>
       <c r="C60" t="n">
-        <v>259.99881847272</v>
+        <v>259.414219967411</v>
       </c>
       <c r="D60" t="n">
-        <v>241.840930569523</v>
+        <v>231.050962264028</v>
       </c>
       <c r="E60" t="n">
-        <v>279.733212138807</v>
+        <v>293.466486278114</v>
       </c>
       <c r="F60" t="n">
         <v>1890</v>
@@ -3057,13 +3057,13 @@
         <v>62</v>
       </c>
       <c r="C61" t="n">
-        <v>666.932821933123</v>
+        <v>675.271035208456</v>
       </c>
       <c r="D61" t="n">
-        <v>633.076081917702</v>
+        <v>604.800816230298</v>
       </c>
       <c r="E61" t="n">
-        <v>701.177218998927</v>
+        <v>754.644205558561</v>
       </c>
       <c r="F61" t="n">
         <v>1890</v>
@@ -3095,13 +3095,13 @@
         <v>63</v>
       </c>
       <c r="C62" t="n">
-        <v>78.0149409143854</v>
+        <v>78.0859933116431</v>
       </c>
       <c r="D62" t="n">
-        <v>68.6227329310936</v>
+        <v>66.1979791943478</v>
       </c>
       <c r="E62" t="n">
-        <v>89.0339815535527</v>
+        <v>91.1056301937383</v>
       </c>
       <c r="F62" t="n">
         <v>1890</v>
@@ -3133,13 +3133,13 @@
         <v>64</v>
       </c>
       <c r="C63" t="n">
-        <v>191.745619313103</v>
+        <v>191.236407164529</v>
       </c>
       <c r="D63" t="n">
-        <v>176.851180289498</v>
+        <v>168.045188400152</v>
       </c>
       <c r="E63" t="n">
-        <v>209.129723258256</v>
+        <v>217.644156531644</v>
       </c>
       <c r="F63" t="n">
         <v>1890</v>
@@ -3171,13 +3171,13 @@
         <v>65</v>
       </c>
       <c r="C64" t="n">
-        <v>207.131966738583</v>
+        <v>206.13693216657</v>
       </c>
       <c r="D64" t="n">
-        <v>191.133167031714</v>
+        <v>182.154352470856</v>
       </c>
       <c r="E64" t="n">
-        <v>225.392952052244</v>
+        <v>236.859823322476</v>
       </c>
       <c r="F64" t="n">
         <v>1890</v>
@@ -3209,13 +3209,13 @@
         <v>66</v>
       </c>
       <c r="C65" t="n">
-        <v>283.376293003364</v>
+        <v>281.477852862689</v>
       </c>
       <c r="D65" t="n">
-        <v>264.987942895375</v>
+        <v>250.294111734142</v>
       </c>
       <c r="E65" t="n">
-        <v>304.898105580863</v>
+        <v>319.982036311167</v>
       </c>
       <c r="F65" t="n">
         <v>1890</v>
@@ -3247,13 +3247,13 @@
         <v>67</v>
       </c>
       <c r="C66" t="n">
-        <v>252.4160975928</v>
+        <v>253.202779479832</v>
       </c>
       <c r="D66" t="n">
-        <v>234.395605171451</v>
+        <v>223.678661555487</v>
       </c>
       <c r="E66" t="n">
-        <v>271.898389367427</v>
+        <v>286.525896480974</v>
       </c>
       <c r="F66" t="n">
         <v>1890</v>
@@ -3285,13 +3285,13 @@
         <v>68</v>
       </c>
       <c r="C67" t="n">
-        <v>197.804948055616</v>
+        <v>200.494426914832</v>
       </c>
       <c r="D67" t="n">
-        <v>182.585177368453</v>
+        <v>175.998042628243</v>
       </c>
       <c r="E67" t="n">
-        <v>214.039847740017</v>
+        <v>227.996534296659</v>
       </c>
       <c r="F67" t="n">
         <v>1890</v>
@@ -3323,13 +3323,13 @@
         <v>69</v>
       </c>
       <c r="C68" t="n">
-        <v>302.213107538061</v>
+        <v>303.721384649867</v>
       </c>
       <c r="D68" t="n">
-        <v>280.877904320265</v>
+        <v>271.431099537705</v>
       </c>
       <c r="E68" t="n">
-        <v>322.142809171174</v>
+        <v>340.466822094021</v>
       </c>
       <c r="F68" t="n">
         <v>1890</v>
@@ -3361,13 +3361,13 @@
         <v>70</v>
       </c>
       <c r="C69" t="n">
-        <v>97.9782934060111</v>
+        <v>98.6259202652119</v>
       </c>
       <c r="D69" t="n">
-        <v>86.8010076985684</v>
+        <v>84.8933812792149</v>
       </c>
       <c r="E69" t="n">
-        <v>109.688866804915</v>
+        <v>114.053424719565</v>
       </c>
       <c r="F69" t="n">
         <v>1890</v>
@@ -3399,13 +3399,13 @@
         <v>71</v>
       </c>
       <c r="C70" t="n">
-        <v>85.3308605621781</v>
+        <v>84.6073760053754</v>
       </c>
       <c r="D70" t="n">
-        <v>75.1937183436758</v>
+        <v>73.4780409627603</v>
       </c>
       <c r="E70" t="n">
-        <v>95.0226847915811</v>
+        <v>98.0966800118483</v>
       </c>
       <c r="F70" t="n">
         <v>1890</v>
@@ -3437,13 +3437,13 @@
         <v>72</v>
       </c>
       <c r="C71" t="n">
-        <v>238.743752377281</v>
+        <v>243.338012298837</v>
       </c>
       <c r="D71" t="n">
-        <v>220.853758419476</v>
+        <v>215.864409938124</v>
       </c>
       <c r="E71" t="n">
-        <v>257.123263697833</v>
+        <v>275.295004289471</v>
       </c>
       <c r="F71" t="n">
         <v>1890</v>
@@ -3475,13 +3475,13 @@
         <v>73</v>
       </c>
       <c r="C72" t="n">
-        <v>648.702016726641</v>
+        <v>621.615119179344</v>
       </c>
       <c r="D72" t="n">
-        <v>616.991090692416</v>
+        <v>554.98851183173</v>
       </c>
       <c r="E72" t="n">
-        <v>682.798990648431</v>
+        <v>694.14451342193</v>
       </c>
       <c r="F72" t="n">
         <v>1890</v>
@@ -3513,13 +3513,13 @@
         <v>74</v>
       </c>
       <c r="C73" t="n">
-        <v>114.974508143156</v>
+        <v>113.225402524458</v>
       </c>
       <c r="D73" t="n">
-        <v>102.624176805874</v>
+        <v>97.3228820519023</v>
       </c>
       <c r="E73" t="n">
-        <v>127.339577300329</v>
+        <v>129.703401162502</v>
       </c>
       <c r="F73" t="n">
         <v>1890</v>
@@ -3551,13 +3551,13 @@
         <v>75</v>
       </c>
       <c r="C74" t="n">
-        <v>44.3898208911162</v>
+        <v>44.9835037431363</v>
       </c>
       <c r="D74" t="n">
-        <v>38.4108933839768</v>
+        <v>37.5174624992763</v>
       </c>
       <c r="E74" t="n">
-        <v>51.4860521504216</v>
+        <v>52.785389923191</v>
       </c>
       <c r="F74" t="n">
         <v>1890</v>
@@ -3589,13 +3589,13 @@
         <v>76</v>
       </c>
       <c r="C75" t="n">
-        <v>565.724577138761</v>
+        <v>554.436139398058</v>
       </c>
       <c r="D75" t="n">
-        <v>535.791016467772</v>
+        <v>493.93818788127</v>
       </c>
       <c r="E75" t="n">
-        <v>597.707250874234</v>
+        <v>620.586761855414</v>
       </c>
       <c r="F75" t="n">
         <v>1890</v>
@@ -3627,13 +3627,13 @@
         <v>77</v>
       </c>
       <c r="C76" t="n">
-        <v>180.706314644751</v>
+        <v>176.901545379325</v>
       </c>
       <c r="D76" t="n">
-        <v>165.458264873617</v>
+        <v>155.492998415867</v>
       </c>
       <c r="E76" t="n">
-        <v>196.61917771854</v>
+        <v>202.232642197438</v>
       </c>
       <c r="F76" t="n">
         <v>1890</v>
@@ -3665,13 +3665,13 @@
         <v>78</v>
       </c>
       <c r="C77" t="n">
-        <v>437.205076613887</v>
+        <v>428.75140292754</v>
       </c>
       <c r="D77" t="n">
-        <v>411.916714557212</v>
+        <v>380.620026893564</v>
       </c>
       <c r="E77" t="n">
-        <v>463.428675848474</v>
+        <v>484.073587893697</v>
       </c>
       <c r="F77" t="n">
         <v>1890</v>
@@ -3703,13 +3703,13 @@
         <v>79</v>
       </c>
       <c r="C78" t="n">
-        <v>280.252365140766</v>
+        <v>275.720697404967</v>
       </c>
       <c r="D78" t="n">
-        <v>259.503598093062</v>
+        <v>243.471295246466</v>
       </c>
       <c r="E78" t="n">
-        <v>300.522656972343</v>
+        <v>312.175723110727</v>
       </c>
       <c r="F78" t="n">
         <v>1890</v>
@@ -3741,13 +3741,13 @@
         <v>80</v>
       </c>
       <c r="C79" t="n">
-        <v>454.232630751489</v>
+        <v>454.631011754948</v>
       </c>
       <c r="D79" t="n">
-        <v>427.102841003266</v>
+        <v>405.867531926904</v>
       </c>
       <c r="E79" t="n">
-        <v>484.496858985388</v>
+        <v>517.013813719222</v>
       </c>
       <c r="F79" t="n">
         <v>1890</v>
@@ -3779,13 +3779,13 @@
         <v>81</v>
       </c>
       <c r="C80" t="n">
-        <v>235.569548524995</v>
+        <v>239.871374178257</v>
       </c>
       <c r="D80" t="n">
-        <v>217.308054375798</v>
+        <v>210.948935360698</v>
       </c>
       <c r="E80" t="n">
-        <v>253.966143132015</v>
+        <v>270.338518202305</v>
       </c>
       <c r="F80" t="n">
         <v>1890</v>
@@ -3817,13 +3817,13 @@
         <v>82</v>
       </c>
       <c r="C81" t="n">
-        <v>1800.31179807515</v>
+        <v>1798.26849254526</v>
       </c>
       <c r="D81" t="n">
-        <v>1736.67754842548</v>
+        <v>1622.26644985039</v>
       </c>
       <c r="E81" t="n">
-        <v>1877.18148290653</v>
+        <v>2018.33305389095</v>
       </c>
       <c r="F81" t="n">
         <v>1890</v>
@@ -3855,13 +3855,13 @@
         <v>83</v>
       </c>
       <c r="C82" t="n">
-        <v>250.804869365754</v>
+        <v>252.183696305279</v>
       </c>
       <c r="D82" t="n">
-        <v>232.172384105674</v>
+        <v>222.69264175435</v>
       </c>
       <c r="E82" t="n">
-        <v>270.189181580855</v>
+        <v>284.485899579769</v>
       </c>
       <c r="F82" t="n">
         <v>1890</v>
@@ -3893,13 +3893,13 @@
         <v>84</v>
       </c>
       <c r="C83" t="n">
-        <v>297.478887930949</v>
+        <v>295.311180470928</v>
       </c>
       <c r="D83" t="n">
-        <v>277.638546573095</v>
+        <v>261.675221678369</v>
       </c>
       <c r="E83" t="n">
-        <v>317.966843818274</v>
+        <v>336.260170300444</v>
       </c>
       <c r="F83" t="n">
         <v>1890</v>
@@ -3931,13 +3931,13 @@
         <v>85</v>
       </c>
       <c r="C84" t="n">
-        <v>448.662867082507</v>
+        <v>422.210956073596</v>
       </c>
       <c r="D84" t="n">
-        <v>422.072186604592</v>
+        <v>376.581542843942</v>
       </c>
       <c r="E84" t="n">
-        <v>477.224155074672</v>
+        <v>473.520303678239</v>
       </c>
       <c r="F84" t="n">
         <v>1890</v>
@@ -3969,13 +3969,13 @@
         <v>86</v>
       </c>
       <c r="C85" t="n">
-        <v>730.075919288294</v>
+        <v>737.284316614491</v>
       </c>
       <c r="D85" t="n">
-        <v>694.854599739752</v>
+        <v>663.394245626421</v>
       </c>
       <c r="E85" t="n">
-        <v>767.260152012287</v>
+        <v>831.676622763942</v>
       </c>
       <c r="F85" t="n">
         <v>1890</v>
@@ -4007,13 +4007,13 @@
         <v>87</v>
       </c>
       <c r="C86" t="n">
-        <v>96.2332960733429</v>
+        <v>96.3714487738379</v>
       </c>
       <c r="D86" t="n">
-        <v>86.0082412237105</v>
+        <v>82.6920438606528</v>
       </c>
       <c r="E86" t="n">
-        <v>107.293271339294</v>
+        <v>110.395449670447</v>
       </c>
       <c r="F86" t="n">
         <v>1890</v>
@@ -4045,13 +4045,13 @@
         <v>88</v>
       </c>
       <c r="C87" t="n">
-        <v>200.33495043466</v>
+        <v>220.060201663703</v>
       </c>
       <c r="D87" t="n">
-        <v>183.038518958944</v>
+        <v>193.583946586466</v>
       </c>
       <c r="E87" t="n">
-        <v>217.943629865432</v>
+        <v>252.557528818157</v>
       </c>
       <c r="F87" t="n">
         <v>1890</v>
@@ -4083,13 +4083,13 @@
         <v>89</v>
       </c>
       <c r="C88" t="n">
-        <v>395.20928039237</v>
+        <v>390.195846206655</v>
       </c>
       <c r="D88" t="n">
-        <v>372.385953675958</v>
+        <v>347.324014719988</v>
       </c>
       <c r="E88" t="n">
-        <v>422.884875517925</v>
+        <v>438.731607894519</v>
       </c>
       <c r="F88" t="n">
         <v>1890</v>
@@ -4121,13 +4121,13 @@
         <v>90</v>
       </c>
       <c r="C89" t="n">
-        <v>210.567456577791</v>
+        <v>210.31442094904</v>
       </c>
       <c r="D89" t="n">
-        <v>194.49876572571</v>
+        <v>185.835626278948</v>
       </c>
       <c r="E89" t="n">
-        <v>229.053086848649</v>
+        <v>239.223454026865</v>
       </c>
       <c r="F89" t="n">
         <v>1890</v>
@@ -4159,13 +4159,13 @@
         <v>91</v>
       </c>
       <c r="C90" t="n">
-        <v>713.213511063479</v>
+        <v>710.702097367313</v>
       </c>
       <c r="D90" t="n">
-        <v>676.607567598484</v>
+        <v>634.457319336971</v>
       </c>
       <c r="E90" t="n">
-        <v>749.49769331019</v>
+        <v>798.038494491524</v>
       </c>
       <c r="F90" t="n">
         <v>1890</v>
@@ -4197,13 +4197,13 @@
         <v>92</v>
       </c>
       <c r="C91" t="n">
-        <v>426.203515364652</v>
+        <v>432.544467023518</v>
       </c>
       <c r="D91" t="n">
-        <v>403.692213034314</v>
+        <v>384.778128829721</v>
       </c>
       <c r="E91" t="n">
-        <v>453.919550130917</v>
+        <v>485.612686960224</v>
       </c>
       <c r="F91" t="n">
         <v>1890</v>
@@ -4235,13 +4235,13 @@
         <v>93</v>
       </c>
       <c r="C92" t="n">
-        <v>293.605039764032</v>
+        <v>281.604765258772</v>
       </c>
       <c r="D92" t="n">
-        <v>275.563154309339</v>
+        <v>251.278101694579</v>
       </c>
       <c r="E92" t="n">
-        <v>315.039012317133</v>
+        <v>321.995677278398</v>
       </c>
       <c r="F92" t="n">
         <v>1890</v>
@@ -4273,13 +4273,13 @@
         <v>94</v>
       </c>
       <c r="C93" t="n">
-        <v>27.2046280075631</v>
+        <v>27.3687098342622</v>
       </c>
       <c r="D93" t="n">
-        <v>22.4286141229789</v>
+        <v>22.2820737649782</v>
       </c>
       <c r="E93" t="n">
-        <v>32.2095196386368</v>
+        <v>32.8472773700548</v>
       </c>
       <c r="F93" t="n">
         <v>1890</v>
@@ -4311,13 +4311,13 @@
         <v>95</v>
       </c>
       <c r="C94" t="n">
-        <v>443.231798665228</v>
+        <v>437.678995477421</v>
       </c>
       <c r="D94" t="n">
-        <v>419.244427634869</v>
+        <v>387.92639095119</v>
       </c>
       <c r="E94" t="n">
-        <v>472.058655612777</v>
+        <v>491.886069126429</v>
       </c>
       <c r="F94" t="n">
         <v>1890</v>
@@ -4349,13 +4349,13 @@
         <v>96</v>
       </c>
       <c r="C95" t="n">
-        <v>445.204938360503</v>
+        <v>445.669621571244</v>
       </c>
       <c r="D95" t="n">
-        <v>417.95429749058</v>
+        <v>395.781801679592</v>
       </c>
       <c r="E95" t="n">
-        <v>470.592135649134</v>
+        <v>503.281408926929</v>
       </c>
       <c r="F95" t="n">
         <v>1890</v>
@@ -4387,13 +4387,13 @@
         <v>97</v>
       </c>
       <c r="C96" t="n">
-        <v>492.002724699813</v>
+        <v>494.019067784913</v>
       </c>
       <c r="D96" t="n">
-        <v>463.545150980615</v>
+        <v>437.346794149439</v>
       </c>
       <c r="E96" t="n">
-        <v>523.19190216391</v>
+        <v>549.741697205095</v>
       </c>
       <c r="F96" t="n">
         <v>1890</v>
@@ -4425,13 +4425,13 @@
         <v>98</v>
       </c>
       <c r="C97" t="n">
-        <v>170.000352367025</v>
+        <v>172.835674115828</v>
       </c>
       <c r="D97" t="n">
-        <v>155.540380554904</v>
+        <v>151.130523663273</v>
       </c>
       <c r="E97" t="n">
-        <v>185.754308612464</v>
+        <v>196.367990228287</v>
       </c>
       <c r="F97" t="n">
         <v>1890</v>
@@ -4463,13 +4463,13 @@
         <v>99</v>
       </c>
       <c r="C98" t="n">
-        <v>397.815510319255</v>
+        <v>379.629048398254</v>
       </c>
       <c r="D98" t="n">
-        <v>372.228471757817</v>
+        <v>335.959804849837</v>
       </c>
       <c r="E98" t="n">
-        <v>423.535696652745</v>
+        <v>424.557112009234</v>
       </c>
       <c r="F98" t="n">
         <v>1890</v>
@@ -4501,13 +4501,13 @@
         <v>100</v>
       </c>
       <c r="C99" t="n">
-        <v>138.95560459095</v>
+        <v>140.447674889204</v>
       </c>
       <c r="D99" t="n">
-        <v>126.862825493766</v>
+        <v>121.975356318056</v>
       </c>
       <c r="E99" t="n">
-        <v>153.312524859126</v>
+        <v>161.284958980995</v>
       </c>
       <c r="F99" t="n">
         <v>1890</v>
@@ -4539,13 +4539,13 @@
         <v>101</v>
       </c>
       <c r="C100" t="n">
-        <v>392.600866663743</v>
+        <v>389.816241933228</v>
       </c>
       <c r="D100" t="n">
-        <v>368.306134306987</v>
+        <v>346.967596183643</v>
       </c>
       <c r="E100" t="n">
-        <v>418.966699803021</v>
+        <v>439.369335257009</v>
       </c>
       <c r="F100" t="n">
         <v>1890</v>
@@ -4577,13 +4577,13 @@
         <v>102</v>
       </c>
       <c r="C101" t="n">
-        <v>375.716043122867</v>
+        <v>374.161852786115</v>
       </c>
       <c r="D101" t="n">
-        <v>351.225783692922</v>
+        <v>332.006797221712</v>
       </c>
       <c r="E101" t="n">
-        <v>401.672928846341</v>
+        <v>424.291359291435</v>
       </c>
       <c r="F101" t="n">
         <v>1890</v>
@@ -4615,13 +4615,13 @@
         <v>103</v>
       </c>
       <c r="C102" t="n">
-        <v>160.150121927257</v>
+        <v>175.053322552515</v>
       </c>
       <c r="D102" t="n">
-        <v>147.075263859299</v>
+        <v>151.356065046954</v>
       </c>
       <c r="E102" t="n">
-        <v>174.378782838943</v>
+        <v>203.171552763103</v>
       </c>
       <c r="F102" t="n">
         <v>1890</v>
@@ -4653,13 +4653,13 @@
         <v>104</v>
       </c>
       <c r="C103" t="n">
-        <v>368.491909522711</v>
+        <v>375.797698873744</v>
       </c>
       <c r="D103" t="n">
-        <v>345.878971773862</v>
+        <v>333.494406030945</v>
       </c>
       <c r="E103" t="n">
-        <v>392.688938382852</v>
+        <v>422.50935418111</v>
       </c>
       <c r="F103" t="n">
         <v>1890</v>
@@ -4691,13 +4691,13 @@
         <v>105</v>
       </c>
       <c r="C104" t="n">
-        <v>2340.86405455495</v>
+        <v>2323.88516441647</v>
       </c>
       <c r="D104" t="n">
-        <v>2257.49715559485</v>
+        <v>2089.56929618026</v>
       </c>
       <c r="E104" t="n">
-        <v>2423.80835380632</v>
+        <v>2582.86560202406</v>
       </c>
       <c r="F104" t="n">
         <v>1890</v>
@@ -4729,13 +4729,13 @@
         <v>106</v>
       </c>
       <c r="C105" t="n">
-        <v>183.08985490209</v>
+        <v>181.323438221781</v>
       </c>
       <c r="D105" t="n">
-        <v>167.926487277442</v>
+        <v>160.469251234428</v>
       </c>
       <c r="E105" t="n">
-        <v>199.922655850628</v>
+        <v>207.166146153621</v>
       </c>
       <c r="F105" t="n">
         <v>1890</v>
@@ -4767,13 +4767,13 @@
         <v>107</v>
       </c>
       <c r="C106" t="n">
-        <v>279.177571997703</v>
+        <v>274.908436801446</v>
       </c>
       <c r="D106" t="n">
-        <v>260.218287128197</v>
+        <v>243.263663713993</v>
       </c>
       <c r="E106" t="n">
-        <v>300.128241380291</v>
+        <v>311.69090625523</v>
       </c>
       <c r="F106" t="n">
         <v>1890</v>
@@ -4805,13 +4805,13 @@
         <v>108</v>
       </c>
       <c r="C107" t="n">
-        <v>248.686236110419</v>
+        <v>245.168090400633</v>
       </c>
       <c r="D107" t="n">
-        <v>230.667470291372</v>
+        <v>214.060800529249</v>
       </c>
       <c r="E107" t="n">
-        <v>269.677985090706</v>
+        <v>280.472251023111</v>
       </c>
       <c r="F107" t="n">
         <v>1890</v>
@@ -4843,13 +4843,13 @@
         <v>109</v>
       </c>
       <c r="C108" t="n">
-        <v>214.925688973274</v>
+        <v>218.298554552277</v>
       </c>
       <c r="D108" t="n">
-        <v>197.588214905356</v>
+        <v>192.446034432352</v>
       </c>
       <c r="E108" t="n">
-        <v>232.759412819312</v>
+        <v>249.075845490675</v>
       </c>
       <c r="F108" t="n">
         <v>1890</v>
@@ -4881,13 +4881,13 @@
         <v>110</v>
       </c>
       <c r="C109" t="n">
-        <v>374.001951873318</v>
+        <v>374.16526375953</v>
       </c>
       <c r="D109" t="n">
-        <v>349.947967940243</v>
+        <v>331.975541621741</v>
       </c>
       <c r="E109" t="n">
-        <v>399.762618907802</v>
+        <v>422.684180346542</v>
       </c>
       <c r="F109" t="n">
         <v>1890</v>
@@ -4919,13 +4919,13 @@
         <v>111</v>
       </c>
       <c r="C110" t="n">
-        <v>100.314446089826</v>
+        <v>99.6372901188108</v>
       </c>
       <c r="D110" t="n">
-        <v>89.627219045976</v>
+        <v>86.7113181673943</v>
       </c>
       <c r="E110" t="n">
-        <v>111.528749332185</v>
+        <v>117.165316026625</v>
       </c>
       <c r="F110" t="n">
         <v>1890</v>
@@ -4957,13 +4957,13 @@
         <v>112</v>
       </c>
       <c r="C111" t="n">
-        <v>246.55040561162</v>
+        <v>251.752660350207</v>
       </c>
       <c r="D111" t="n">
-        <v>228.565186816602</v>
+        <v>221.642741264307</v>
       </c>
       <c r="E111" t="n">
-        <v>265.910643138175</v>
+        <v>283.479802795294</v>
       </c>
       <c r="F111" t="n">
         <v>1890</v>
@@ -4995,13 +4995,13 @@
         <v>113</v>
       </c>
       <c r="C112" t="n">
-        <v>299.100890500269</v>
+        <v>304.238127513977</v>
       </c>
       <c r="D112" t="n">
-        <v>278.883340373754</v>
+        <v>271.764445703598</v>
       </c>
       <c r="E112" t="n">
-        <v>321.012291443958</v>
+        <v>341.123822145624</v>
       </c>
       <c r="F112" t="n">
         <v>1890</v>
@@ -5033,13 +5033,13 @@
         <v>114</v>
       </c>
       <c r="C113" t="n">
-        <v>505.870854849642</v>
+        <v>506.577602186383</v>
       </c>
       <c r="D113" t="n">
-        <v>477.247825173628</v>
+        <v>453.750181612256</v>
       </c>
       <c r="E113" t="n">
-        <v>536.144806783438</v>
+        <v>566.408484881451</v>
       </c>
       <c r="F113" t="n">
         <v>1890</v>
@@ -5071,13 +5071,13 @@
         <v>115</v>
       </c>
       <c r="C114" t="n">
-        <v>237.058707292292</v>
+        <v>231.043225417207</v>
       </c>
       <c r="D114" t="n">
-        <v>219.227719986501</v>
+        <v>204.817732373574</v>
       </c>
       <c r="E114" t="n">
-        <v>255.458655778481</v>
+        <v>260.515091964661</v>
       </c>
       <c r="F114" t="n">
         <v>1890</v>
@@ -5109,13 +5109,13 @@
         <v>116</v>
       </c>
       <c r="C115" t="n">
-        <v>191.438162147735</v>
+        <v>186.89318867208</v>
       </c>
       <c r="D115" t="n">
-        <v>176.153591815968</v>
+        <v>164.41089972742</v>
       </c>
       <c r="E115" t="n">
-        <v>207.230798136834</v>
+        <v>213.665481722446</v>
       </c>
       <c r="F115" t="n">
         <v>1890</v>
@@ -5147,13 +5147,13 @@
         <v>117</v>
       </c>
       <c r="C116" t="n">
-        <v>105.102833075378</v>
+        <v>105.45626610999</v>
       </c>
       <c r="D116" t="n">
-        <v>94.7011273535422</v>
+        <v>91.6732556439103</v>
       </c>
       <c r="E116" t="n">
-        <v>116.919712900182</v>
+        <v>120.674026133333</v>
       </c>
       <c r="F116" t="n">
         <v>1890</v>
@@ -5185,13 +5185,13 @@
         <v>118</v>
       </c>
       <c r="C117" t="n">
-        <v>629.781085759011</v>
+        <v>621.278908166918</v>
       </c>
       <c r="D117" t="n">
-        <v>598.350782626642</v>
+        <v>556.373527459187</v>
       </c>
       <c r="E117" t="n">
-        <v>665.239236606682</v>
+        <v>694.306169440778</v>
       </c>
       <c r="F117" t="n">
         <v>1890</v>
@@ -5223,13 +5223,13 @@
         <v>119</v>
       </c>
       <c r="C118" t="n">
-        <v>148.498118095591</v>
+        <v>148.567697032687</v>
       </c>
       <c r="D118" t="n">
-        <v>135.659048502658</v>
+        <v>129.918863799002</v>
       </c>
       <c r="E118" t="n">
-        <v>162.778822466663</v>
+        <v>170.044266674122</v>
       </c>
       <c r="F118" t="n">
         <v>1890</v>
@@ -5261,13 +5261,13 @@
         <v>120</v>
       </c>
       <c r="C119" t="n">
-        <v>208.021738298285</v>
+        <v>210.006786990278</v>
       </c>
       <c r="D119" t="n">
-        <v>191.248669092738</v>
+        <v>185.842731765619</v>
       </c>
       <c r="E119" t="n">
-        <v>226.889255925373</v>
+        <v>240.976869965476</v>
       </c>
       <c r="F119" t="n">
         <v>1890</v>
@@ -5299,13 +5299,13 @@
         <v>121</v>
       </c>
       <c r="C120" t="n">
-        <v>847.341878533837</v>
+        <v>836.245639747585</v>
       </c>
       <c r="D120" t="n">
-        <v>810.931602954155</v>
+        <v>745.206883151511</v>
       </c>
       <c r="E120" t="n">
-        <v>885.839564014068</v>
+        <v>927.9812084095</v>
       </c>
       <c r="F120" t="n">
         <v>1890</v>
@@ -5337,13 +5337,13 @@
         <v>122</v>
       </c>
       <c r="C121" t="n">
-        <v>336.757276979295</v>
+        <v>338.385604659732</v>
       </c>
       <c r="D121" t="n">
-        <v>314.923969628212</v>
+        <v>303.152999738175</v>
       </c>
       <c r="E121" t="n">
-        <v>361.020709880996</v>
+        <v>381.717443592086</v>
       </c>
       <c r="F121" t="n">
         <v>1890</v>
@@ -5375,13 +5375,13 @@
         <v>123</v>
       </c>
       <c r="C122" t="n">
-        <v>703.325288406464</v>
+        <v>703.454019942457</v>
       </c>
       <c r="D122" t="n">
-        <v>666.27838306875</v>
+        <v>621.274899127432</v>
       </c>
       <c r="E122" t="n">
-        <v>738.934804986204</v>
+        <v>792.544650457948</v>
       </c>
       <c r="F122" t="n">
         <v>1890</v>
@@ -5413,13 +5413,13 @@
         <v>124</v>
       </c>
       <c r="C123" t="n">
-        <v>827.230873666168</v>
+        <v>812.86800661349</v>
       </c>
       <c r="D123" t="n">
-        <v>788.172087888783</v>
+        <v>730.178356815266</v>
       </c>
       <c r="E123" t="n">
-        <v>867.587661800807</v>
+        <v>905.394016334034</v>
       </c>
       <c r="F123" t="n">
         <v>1890</v>
@@ -5451,13 +5451,13 @@
         <v>125</v>
       </c>
       <c r="C124" t="n">
-        <v>2043.82822867512</v>
+        <v>2030.7888697291</v>
       </c>
       <c r="D124" t="n">
-        <v>1971.89449179119</v>
+        <v>1809.25043583165</v>
       </c>
       <c r="E124" t="n">
-        <v>2132.77619727984</v>
+        <v>2248.26684510246</v>
       </c>
       <c r="F124" t="n">
         <v>1890</v>
@@ -5489,13 +5489,13 @@
         <v>126</v>
       </c>
       <c r="C125" t="n">
-        <v>563.14883935347</v>
+        <v>564.361669235816</v>
       </c>
       <c r="D125" t="n">
-        <v>533.304777136769</v>
+        <v>506.457808765838</v>
       </c>
       <c r="E125" t="n">
-        <v>595.645804952292</v>
+        <v>637.32514193039</v>
       </c>
       <c r="F125" t="n">
         <v>1890</v>
@@ -5527,13 +5527,13 @@
         <v>127</v>
       </c>
       <c r="C126" t="n">
-        <v>266.949887501955</v>
+        <v>269.805495494821</v>
       </c>
       <c r="D126" t="n">
-        <v>247.705630351641</v>
+        <v>239.338862415545</v>
       </c>
       <c r="E126" t="n">
-        <v>285.722869054536</v>
+        <v>304.677068927928</v>
       </c>
       <c r="F126" t="n">
         <v>1890</v>
@@ -5565,13 +5565,13 @@
         <v>128</v>
       </c>
       <c r="C127" t="n">
-        <v>417.661055757215</v>
+        <v>409.47339918907</v>
       </c>
       <c r="D127" t="n">
-        <v>391.695641980233</v>
+        <v>365.433440598964</v>
       </c>
       <c r="E127" t="n">
-        <v>444.82803857676</v>
+        <v>457.234953918885</v>
       </c>
       <c r="F127" t="n">
         <v>1890</v>
@@ -5603,13 +5603,13 @@
         <v>130</v>
       </c>
       <c r="C128" t="n">
-        <v>213.683259974077</v>
+        <v>213.346891376366</v>
       </c>
       <c r="D128" t="n">
-        <v>197.32952800973</v>
+        <v>188.77287631757</v>
       </c>
       <c r="E128" t="n">
-        <v>231.088741859082</v>
+        <v>241.821895613522</v>
       </c>
       <c r="F128" t="n">
         <v>1890</v>
@@ -5641,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>120.545667655159</v>
+        <v>115.239318229103</v>
       </c>
       <c r="D129" t="n">
-        <v>106.156945492415</v>
+        <v>32.1559162345002</v>
       </c>
       <c r="E129" t="n">
-        <v>136.05218880247</v>
+        <v>823.934018495217</v>
       </c>
       <c r="F129" t="n">
         <v>1891</v>
@@ -5679,13 +5679,13 @@
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>102.196232154488</v>
+        <v>98.4154701969624</v>
       </c>
       <c r="D130" t="n">
-        <v>90.0220792453306</v>
+        <v>83.3812560303287</v>
       </c>
       <c r="E130" t="n">
-        <v>115.79341623384</v>
+        <v>115.446052602501</v>
       </c>
       <c r="F130" t="n">
         <v>1891</v>
@@ -5717,13 +5717,13 @@
         <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>351.912991423083</v>
+        <v>334.921117511621</v>
       </c>
       <c r="D131" t="n">
-        <v>324.544810070618</v>
+        <v>295.233862276104</v>
       </c>
       <c r="E131" t="n">
-        <v>380.688973599007</v>
+        <v>381.487834785063</v>
       </c>
       <c r="F131" t="n">
         <v>1891</v>
@@ -5755,13 +5755,13 @@
         <v>4</v>
       </c>
       <c r="C132" t="n">
-        <v>1773.50998621897</v>
+        <v>1776.50384515287</v>
       </c>
       <c r="D132" t="n">
-        <v>1682.81004716678</v>
+        <v>1585.64021880222</v>
       </c>
       <c r="E132" t="n">
-        <v>1862.40160693626</v>
+        <v>1995.49029696515</v>
       </c>
       <c r="F132" t="n">
         <v>1891</v>
@@ -5793,13 +5793,13 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>281.464385155954</v>
+        <v>286.526915069189</v>
       </c>
       <c r="D133" t="n">
-        <v>258.085657001086</v>
+        <v>249.780286793844</v>
       </c>
       <c r="E133" t="n">
-        <v>305.951486967247</v>
+        <v>327.050527519984</v>
       </c>
       <c r="F133" t="n">
         <v>1891</v>
@@ -5831,13 +5831,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>1371.83305739923</v>
+        <v>1368.3723394712</v>
       </c>
       <c r="D134" t="n">
-        <v>1300.53136788062</v>
+        <v>1206.15274549193</v>
       </c>
       <c r="E134" t="n">
-        <v>1443.4415884829</v>
+        <v>1555.01369638199</v>
       </c>
       <c r="F134" t="n">
         <v>1891</v>
@@ -5869,13 +5869,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>372.013946584383</v>
+        <v>371.897737313384</v>
       </c>
       <c r="D135" t="n">
-        <v>344.563808420489</v>
+        <v>326.990612192302</v>
       </c>
       <c r="E135" t="n">
-        <v>402.627959848396</v>
+        <v>423.093332073741</v>
       </c>
       <c r="F135" t="n">
         <v>1891</v>
@@ -5907,13 +5907,13 @@
         <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>170.617704459532</v>
+        <v>173.909059199619</v>
       </c>
       <c r="D136" t="n">
-        <v>153.202655156297</v>
+        <v>149.996793377247</v>
       </c>
       <c r="E136" t="n">
-        <v>188.124773893931</v>
+        <v>201.910301604359</v>
       </c>
       <c r="F136" t="n">
         <v>1891</v>
@@ -5945,13 +5945,13 @@
         <v>9</v>
       </c>
       <c r="C137" t="n">
-        <v>197.965131335246</v>
+        <v>201.907973373303</v>
       </c>
       <c r="D137" t="n">
-        <v>177.603429509138</v>
+        <v>173.153216902586</v>
       </c>
       <c r="E137" t="n">
-        <v>218.848375076612</v>
+        <v>232.783173506286</v>
       </c>
       <c r="F137" t="n">
         <v>1891</v>
@@ -5983,13 +5983,13 @@
         <v>10</v>
       </c>
       <c r="C138" t="n">
-        <v>131.588558175233</v>
+        <v>132.540286200807</v>
       </c>
       <c r="D138" t="n">
-        <v>116.380563760336</v>
+        <v>113.256775252744</v>
       </c>
       <c r="E138" t="n">
-        <v>147.718605121312</v>
+        <v>153.123867262558</v>
       </c>
       <c r="F138" t="n">
         <v>1891</v>
@@ -6021,13 +6021,13 @@
         <v>11</v>
       </c>
       <c r="C139" t="n">
-        <v>159.964339353856</v>
+        <v>160.195795515759</v>
       </c>
       <c r="D139" t="n">
-        <v>142.131493100538</v>
+        <v>138.595942803603</v>
       </c>
       <c r="E139" t="n">
-        <v>176.819541845785</v>
+        <v>183.933387387827</v>
       </c>
       <c r="F139" t="n">
         <v>1891</v>
@@ -6059,13 +6059,13 @@
         <v>12</v>
       </c>
       <c r="C140" t="n">
-        <v>309.189810684307</v>
+        <v>300.333732404635</v>
       </c>
       <c r="D140" t="n">
-        <v>283.627037434167</v>
+        <v>263.059543070841</v>
       </c>
       <c r="E140" t="n">
-        <v>338.926706264946</v>
+        <v>343.360373139468</v>
       </c>
       <c r="F140" t="n">
         <v>1891</v>
@@ -6097,13 +6097,13 @@
         <v>13</v>
       </c>
       <c r="C141" t="n">
-        <v>166.597944074531</v>
+        <v>167.936923119971</v>
       </c>
       <c r="D141" t="n">
-        <v>148.857150644016</v>
+        <v>145.010242645</v>
       </c>
       <c r="E141" t="n">
-        <v>185.550948960658</v>
+        <v>195.963766991466</v>
       </c>
       <c r="F141" t="n">
         <v>1891</v>
@@ -6135,13 +6135,13 @@
         <v>14</v>
       </c>
       <c r="C142" t="n">
-        <v>110.599316815766</v>
+        <v>109.422641034702</v>
       </c>
       <c r="D142" t="n">
-        <v>97.2552829239276</v>
+        <v>92.478606855888</v>
       </c>
       <c r="E142" t="n">
-        <v>124.968272123009</v>
+        <v>127.655119644381</v>
       </c>
       <c r="F142" t="n">
         <v>1891</v>
@@ -6173,13 +6173,13 @@
         <v>15</v>
       </c>
       <c r="C143" t="n">
-        <v>299.280395849392</v>
+        <v>300.554201658728</v>
       </c>
       <c r="D143" t="n">
-        <v>275.5186632568</v>
+        <v>264.522793827401</v>
       </c>
       <c r="E143" t="n">
-        <v>326.456772641692</v>
+        <v>344.9162458039</v>
       </c>
       <c r="F143" t="n">
         <v>1891</v>
@@ -6211,13 +6211,13 @@
         <v>16</v>
       </c>
       <c r="C144" t="n">
-        <v>529.363060740443</v>
+        <v>529.117574423577</v>
       </c>
       <c r="D144" t="n">
-        <v>491.265507191445</v>
+        <v>467.977369018051</v>
       </c>
       <c r="E144" t="n">
-        <v>564.790558283249</v>
+        <v>600.466411444419</v>
       </c>
       <c r="F144" t="n">
         <v>1891</v>
@@ -6249,13 +6249,13 @@
         <v>17</v>
       </c>
       <c r="C145" t="n">
-        <v>273.370759010579</v>
+        <v>271.192360778428</v>
       </c>
       <c r="D145" t="n">
-        <v>249.506877048443</v>
+        <v>235.535572382501</v>
       </c>
       <c r="E145" t="n">
-        <v>299.776671327556</v>
+        <v>315.14785731547</v>
       </c>
       <c r="F145" t="n">
         <v>1891</v>
@@ -6287,13 +6287,13 @@
         <v>18</v>
       </c>
       <c r="C146" t="n">
-        <v>96.9858689581311</v>
+        <v>96.0579554198785</v>
       </c>
       <c r="D146" t="n">
-        <v>84.5979389702165</v>
+        <v>81.8883730589897</v>
       </c>
       <c r="E146" t="n">
-        <v>110.650198489897</v>
+        <v>115.421596851916</v>
       </c>
       <c r="F146" t="n">
         <v>1891</v>
@@ -6325,13 +6325,13 @@
         <v>19</v>
       </c>
       <c r="C147" t="n">
-        <v>176.379698388152</v>
+        <v>173.890176808155</v>
       </c>
       <c r="D147" t="n">
-        <v>159.057303100367</v>
+        <v>150.599497074174</v>
       </c>
       <c r="E147" t="n">
-        <v>197.039146009559</v>
+        <v>201.587402609228</v>
       </c>
       <c r="F147" t="n">
         <v>1891</v>
@@ -6363,13 +6363,13 @@
         <v>20</v>
       </c>
       <c r="C148" t="n">
-        <v>183.335160363764</v>
+        <v>183.964200408188</v>
       </c>
       <c r="D148" t="n">
-        <v>164.80875918861</v>
+        <v>159.691256139502</v>
       </c>
       <c r="E148" t="n">
-        <v>203.883912721082</v>
+        <v>213.18784594073</v>
       </c>
       <c r="F148" t="n">
         <v>1891</v>
@@ -6401,13 +6401,13 @@
         <v>21</v>
       </c>
       <c r="C149" t="n">
-        <v>220.298915805369</v>
+        <v>224.521978200025</v>
       </c>
       <c r="D149" t="n">
-        <v>201.935302350216</v>
+        <v>194.986122922383</v>
       </c>
       <c r="E149" t="n">
-        <v>240.768988898685</v>
+        <v>257.551440118775</v>
       </c>
       <c r="F149" t="n">
         <v>1891</v>
@@ -6439,13 +6439,13 @@
         <v>22</v>
       </c>
       <c r="C150" t="n">
-        <v>240.511592565652</v>
+        <v>245.637480588086</v>
       </c>
       <c r="D150" t="n">
-        <v>217.661891821523</v>
+        <v>212.396435017939</v>
       </c>
       <c r="E150" t="n">
-        <v>262.026783273982</v>
+        <v>281.357213283065</v>
       </c>
       <c r="F150" t="n">
         <v>1891</v>
@@ -6477,13 +6477,13 @@
         <v>23</v>
       </c>
       <c r="C151" t="n">
-        <v>284.673864111656</v>
+        <v>283.541583876949</v>
       </c>
       <c r="D151" t="n">
-        <v>262.129704055161</v>
+        <v>246.143056828789</v>
       </c>
       <c r="E151" t="n">
-        <v>310.320030553608</v>
+        <v>326.392753326706</v>
       </c>
       <c r="F151" t="n">
         <v>1891</v>
@@ -6515,13 +6515,13 @@
         <v>24</v>
       </c>
       <c r="C152" t="n">
-        <v>256.688701107062</v>
+        <v>258.035957132664</v>
       </c>
       <c r="D152" t="n">
-        <v>232.590607123855</v>
+        <v>224.402447920934</v>
       </c>
       <c r="E152" t="n">
-        <v>280.50850673606</v>
+        <v>295.71360063529</v>
       </c>
       <c r="F152" t="n">
         <v>1891</v>
@@ -6553,13 +6553,13 @@
         <v>25</v>
       </c>
       <c r="C153" t="n">
-        <v>192.042426849175</v>
+        <v>192.545019927053</v>
       </c>
       <c r="D153" t="n">
-        <v>173.601120912052</v>
+        <v>166.762245238654</v>
       </c>
       <c r="E153" t="n">
-        <v>211.712141896929</v>
+        <v>220.202784935459</v>
       </c>
       <c r="F153" t="n">
         <v>1891</v>
@@ -6591,13 +6591,13 @@
         <v>26</v>
       </c>
       <c r="C154" t="n">
-        <v>299.943958965477</v>
+        <v>297.102083563232</v>
       </c>
       <c r="D154" t="n">
-        <v>275.144049664163</v>
+        <v>260.634012452601</v>
       </c>
       <c r="E154" t="n">
-        <v>329.232198052261</v>
+        <v>338.240469373893</v>
       </c>
       <c r="F154" t="n">
         <v>1891</v>
@@ -6629,13 +6629,13 @@
         <v>27</v>
       </c>
       <c r="C155" t="n">
-        <v>132.178413189583</v>
+        <v>129.07500525329</v>
       </c>
       <c r="D155" t="n">
-        <v>116.652146533342</v>
+        <v>109.432783015186</v>
       </c>
       <c r="E155" t="n">
-        <v>147.669423121186</v>
+        <v>150.476113734296</v>
       </c>
       <c r="F155" t="n">
         <v>1891</v>
@@ -6667,13 +6667,13 @@
         <v>28</v>
       </c>
       <c r="C156" t="n">
-        <v>113.344522362702</v>
+        <v>114.153365799869</v>
       </c>
       <c r="D156" t="n">
-        <v>99.7527555816104</v>
+        <v>97.139189699151</v>
       </c>
       <c r="E156" t="n">
-        <v>128.341586038928</v>
+        <v>134.074657472324</v>
       </c>
       <c r="F156" t="n">
         <v>1891</v>
@@ -6705,13 +6705,13 @@
         <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>142.295433981076</v>
+        <v>141.344357500826</v>
       </c>
       <c r="D157" t="n">
-        <v>126.639287411753</v>
+        <v>121.04293156307</v>
       </c>
       <c r="E157" t="n">
-        <v>160.736324829997</v>
+        <v>163.154147166806</v>
       </c>
       <c r="F157" t="n">
         <v>1891</v>
@@ -6743,13 +6743,13 @@
         <v>30</v>
       </c>
       <c r="C158" t="n">
-        <v>1148.91795907277</v>
+        <v>1129.62418078402</v>
       </c>
       <c r="D158" t="n">
-        <v>1086.2859731961</v>
+        <v>992.661537706512</v>
       </c>
       <c r="E158" t="n">
-        <v>1208.74974406546</v>
+        <v>1279.81651429584</v>
       </c>
       <c r="F158" t="n">
         <v>1891</v>
@@ -6781,13 +6781,13 @@
         <v>31</v>
       </c>
       <c r="C159" t="n">
-        <v>297.018123366089</v>
+        <v>290.352757655673</v>
       </c>
       <c r="D159" t="n">
-        <v>273.619792608851</v>
+        <v>253.136762053055</v>
       </c>
       <c r="E159" t="n">
-        <v>323.543153718643</v>
+        <v>333.971230754157</v>
       </c>
       <c r="F159" t="n">
         <v>1891</v>
@@ -6819,13 +6819,13 @@
         <v>32</v>
       </c>
       <c r="C160" t="n">
-        <v>116.999004221581</v>
+        <v>115.714113180603</v>
       </c>
       <c r="D160" t="n">
-        <v>100.981400382229</v>
+        <v>99.3965591688123</v>
       </c>
       <c r="E160" t="n">
-        <v>133.554952932751</v>
+        <v>136.948015521302</v>
       </c>
       <c r="F160" t="n">
         <v>1891</v>
@@ -6857,13 +6857,13 @@
         <v>33</v>
       </c>
       <c r="C161" t="n">
-        <v>526.004192193547</v>
+        <v>529.240276760457</v>
       </c>
       <c r="D161" t="n">
-        <v>493.847319751133</v>
+        <v>464.207829866828</v>
       </c>
       <c r="E161" t="n">
-        <v>562.792733996601</v>
+        <v>604.510147222316</v>
       </c>
       <c r="F161" t="n">
         <v>1891</v>
@@ -6895,13 +6895,13 @@
         <v>34</v>
       </c>
       <c r="C162" t="n">
-        <v>134.929296633481</v>
+        <v>135.280144519994</v>
       </c>
       <c r="D162" t="n">
-        <v>119.301419420845</v>
+        <v>114.770504242387</v>
       </c>
       <c r="E162" t="n">
-        <v>152.304926274194</v>
+        <v>157.234734907453</v>
       </c>
       <c r="F162" t="n">
         <v>1891</v>
@@ -6933,13 +6933,13 @@
         <v>35</v>
       </c>
       <c r="C163" t="n">
-        <v>370.453382047538</v>
+        <v>379.633750095427</v>
       </c>
       <c r="D163" t="n">
-        <v>343.538984024272</v>
+        <v>333.46471212895</v>
       </c>
       <c r="E163" t="n">
-        <v>401.638602547904</v>
+        <v>434.194383441383</v>
       </c>
       <c r="F163" t="n">
         <v>1891</v>
@@ -6971,13 +6971,13 @@
         <v>36</v>
       </c>
       <c r="C164" t="n">
-        <v>145.987900990852</v>
+        <v>146.577713377889</v>
       </c>
       <c r="D164" t="n">
-        <v>129.970564077335</v>
+        <v>126.342112215727</v>
       </c>
       <c r="E164" t="n">
-        <v>163.698265218478</v>
+        <v>169.793587152634</v>
       </c>
       <c r="F164" t="n">
         <v>1891</v>
@@ -7009,13 +7009,13 @@
         <v>38</v>
       </c>
       <c r="C165" t="n">
-        <v>360.717986665973</v>
+        <v>358.594333563171</v>
       </c>
       <c r="D165" t="n">
-        <v>334.195967563538</v>
+        <v>315.629899477387</v>
       </c>
       <c r="E165" t="n">
-        <v>390.350091737124</v>
+        <v>410.834032429998</v>
       </c>
       <c r="F165" t="n">
         <v>1891</v>
@@ -7047,13 +7047,13 @@
         <v>39</v>
       </c>
       <c r="C166" t="n">
-        <v>511.030276215732</v>
+        <v>516.721136678069</v>
       </c>
       <c r="D166" t="n">
-        <v>477.041740227067</v>
+        <v>453.425413394168</v>
       </c>
       <c r="E166" t="n">
-        <v>547.75832836047</v>
+        <v>595.20016572772</v>
       </c>
       <c r="F166" t="n">
         <v>1891</v>
@@ -7085,13 +7085,13 @@
         <v>41</v>
       </c>
       <c r="C167" t="n">
-        <v>206.129580396862</v>
+        <v>204.594383531093</v>
       </c>
       <c r="D167" t="n">
-        <v>187.584658019753</v>
+        <v>176.841349207897</v>
       </c>
       <c r="E167" t="n">
-        <v>229.892849799955</v>
+        <v>235.544718094331</v>
       </c>
       <c r="F167" t="n">
         <v>1891</v>
@@ -7123,13 +7123,13 @@
         <v>42</v>
       </c>
       <c r="C168" t="n">
-        <v>74.7448737842571</v>
+        <v>73.627401861645</v>
       </c>
       <c r="D168" t="n">
-        <v>64.7964810843247</v>
+        <v>63.1106807745309</v>
       </c>
       <c r="E168" t="n">
-        <v>87.4259364686086</v>
+        <v>87.9503053961284</v>
       </c>
       <c r="F168" t="n">
         <v>1891</v>
@@ -7161,13 +7161,13 @@
         <v>43</v>
       </c>
       <c r="C169" t="n">
-        <v>375.93954991249</v>
+        <v>372.241154052148</v>
       </c>
       <c r="D169" t="n">
-        <v>346.998592895258</v>
+        <v>324.140532717636</v>
       </c>
       <c r="E169" t="n">
-        <v>405.316932345742</v>
+        <v>425.23955006649</v>
       </c>
       <c r="F169" t="n">
         <v>1891</v>
@@ -7199,13 +7199,13 @@
         <v>44</v>
       </c>
       <c r="C170" t="n">
-        <v>109.175746501862</v>
+        <v>109.772496710702</v>
       </c>
       <c r="D170" t="n">
-        <v>95.8354577921319</v>
+        <v>93.0349409037123</v>
       </c>
       <c r="E170" t="n">
-        <v>124.332360920123</v>
+        <v>129.009410285129</v>
       </c>
       <c r="F170" t="n">
         <v>1891</v>
@@ -7237,13 +7237,13 @@
         <v>45</v>
       </c>
       <c r="C171" t="n">
-        <v>305.072850134515</v>
+        <v>305.517773069348</v>
       </c>
       <c r="D171" t="n">
-        <v>280.232424172363</v>
+        <v>266.291807620267</v>
       </c>
       <c r="E171" t="n">
-        <v>330.945412751476</v>
+        <v>350.026911447621</v>
       </c>
       <c r="F171" t="n">
         <v>1891</v>
@@ -7275,13 +7275,13 @@
         <v>46</v>
       </c>
       <c r="C172" t="n">
-        <v>224.963757908639</v>
+        <v>222.67049346866</v>
       </c>
       <c r="D172" t="n">
-        <v>203.972527782022</v>
+        <v>193.501407653329</v>
       </c>
       <c r="E172" t="n">
-        <v>246.893391154555</v>
+        <v>255.107324457532</v>
       </c>
       <c r="F172" t="n">
         <v>1891</v>
@@ -7313,13 +7313,13 @@
         <v>47</v>
       </c>
       <c r="C173" t="n">
-        <v>215.502854648821</v>
+        <v>218.693229090316</v>
       </c>
       <c r="D173" t="n">
-        <v>195.85759954984</v>
+        <v>189.196947539153</v>
       </c>
       <c r="E173" t="n">
-        <v>236.731598612604</v>
+        <v>250.769051611378</v>
       </c>
       <c r="F173" t="n">
         <v>1891</v>
@@ -7351,13 +7351,13 @@
         <v>48</v>
       </c>
       <c r="C174" t="n">
-        <v>652.223661564375</v>
+        <v>646.54374777921</v>
       </c>
       <c r="D174" t="n">
-        <v>610.764562257612</v>
+        <v>564.676130140353</v>
       </c>
       <c r="E174" t="n">
-        <v>696.314512663477</v>
+        <v>734.513726937368</v>
       </c>
       <c r="F174" t="n">
         <v>1891</v>
@@ -7389,13 +7389,13 @@
         <v>49</v>
       </c>
       <c r="C175" t="n">
-        <v>264.264852012565</v>
+        <v>259.345105567173</v>
       </c>
       <c r="D175" t="n">
-        <v>241.36851675195</v>
+        <v>226.757378810784</v>
       </c>
       <c r="E175" t="n">
-        <v>288.037316666594</v>
+        <v>301.227533626209</v>
       </c>
       <c r="F175" t="n">
         <v>1891</v>
@@ -7427,13 +7427,13 @@
         <v>50</v>
       </c>
       <c r="C176" t="n">
-        <v>266.673513792425</v>
+        <v>268.289659069157</v>
       </c>
       <c r="D176" t="n">
-        <v>243.51829619813</v>
+        <v>231.293626125248</v>
       </c>
       <c r="E176" t="n">
-        <v>291.44314136045</v>
+        <v>305.591726418534</v>
       </c>
       <c r="F176" t="n">
         <v>1891</v>
@@ -7465,13 +7465,13 @@
         <v>51</v>
       </c>
       <c r="C177" t="n">
-        <v>230.435995768977</v>
+        <v>233.691843698932</v>
       </c>
       <c r="D177" t="n">
-        <v>209.820033886186</v>
+        <v>204.341251713345</v>
       </c>
       <c r="E177" t="n">
-        <v>254.012273579424</v>
+        <v>269.823661162371</v>
       </c>
       <c r="F177" t="n">
         <v>1891</v>
@@ -7503,13 +7503,13 @@
         <v>52</v>
       </c>
       <c r="C178" t="n">
-        <v>81.4929666225078</v>
+        <v>82.0258675971886</v>
       </c>
       <c r="D178" t="n">
-        <v>70.0872998180553</v>
+        <v>68.6287447771085</v>
       </c>
       <c r="E178" t="n">
-        <v>93.8546349156972</v>
+        <v>95.9210934852596</v>
       </c>
       <c r="F178" t="n">
         <v>1891</v>
@@ -7541,13 +7541,13 @@
         <v>53</v>
       </c>
       <c r="C179" t="n">
-        <v>57.442123727433</v>
+        <v>57.3149550281559</v>
       </c>
       <c r="D179" t="n">
-        <v>48.3906113328044</v>
+        <v>47.2635343205587</v>
       </c>
       <c r="E179" t="n">
-        <v>67.5666415373563</v>
+        <v>68.6492912149595</v>
       </c>
       <c r="F179" t="n">
         <v>1891</v>
@@ -7579,13 +7579,13 @@
         <v>54</v>
       </c>
       <c r="C180" t="n">
-        <v>884.665019896959</v>
+        <v>881.507449672278</v>
       </c>
       <c r="D180" t="n">
-        <v>834.184422705893</v>
+        <v>785.640841029622</v>
       </c>
       <c r="E180" t="n">
-        <v>935.200086268687</v>
+        <v>1008.90083489127</v>
       </c>
       <c r="F180" t="n">
         <v>1891</v>
@@ -7617,13 +7617,13 @@
         <v>55</v>
       </c>
       <c r="C181" t="n">
-        <v>467.977880036926</v>
+        <v>448.095131958597</v>
       </c>
       <c r="D181" t="n">
-        <v>436.484692714162</v>
+        <v>394.0156936199</v>
       </c>
       <c r="E181" t="n">
-        <v>499.703190788844</v>
+        <v>510.716658914097</v>
       </c>
       <c r="F181" t="n">
         <v>1891</v>
@@ -7655,13 +7655,13 @@
         <v>56</v>
       </c>
       <c r="C182" t="n">
-        <v>779.86885434457</v>
+        <v>784.57951558592</v>
       </c>
       <c r="D182" t="n">
-        <v>735.141936101635</v>
+        <v>694.685094649447</v>
       </c>
       <c r="E182" t="n">
-        <v>827.189447890577</v>
+        <v>887.295435772662</v>
       </c>
       <c r="F182" t="n">
         <v>1891</v>
@@ -7693,13 +7693,13 @@
         <v>57</v>
       </c>
       <c r="C183" t="n">
-        <v>1083.37375891904</v>
+        <v>1107.38994866454</v>
       </c>
       <c r="D183" t="n">
-        <v>1022.586752103</v>
+        <v>975.663713320103</v>
       </c>
       <c r="E183" t="n">
-        <v>1146.50881992031</v>
+        <v>1250.96088238355</v>
       </c>
       <c r="F183" t="n">
         <v>1891</v>
@@ -7731,13 +7731,13 @@
         <v>58</v>
       </c>
       <c r="C184" t="n">
-        <v>573.684399404676</v>
+        <v>553.625303878361</v>
       </c>
       <c r="D184" t="n">
-        <v>539.315832417121</v>
+        <v>489.015944043006</v>
       </c>
       <c r="E184" t="n">
-        <v>612.519269271482</v>
+        <v>631.554086490893</v>
       </c>
       <c r="F184" t="n">
         <v>1891</v>
@@ -7769,13 +7769,13 @@
         <v>59</v>
       </c>
       <c r="C185" t="n">
-        <v>266.869120555425</v>
+        <v>274.2435776322</v>
       </c>
       <c r="D185" t="n">
-        <v>242.779370709921</v>
+        <v>236.327913481184</v>
       </c>
       <c r="E185" t="n">
-        <v>291.670489559421</v>
+        <v>313.225153300886</v>
       </c>
       <c r="F185" t="n">
         <v>1891</v>
@@ -7807,13 +7807,13 @@
         <v>60</v>
       </c>
       <c r="C186" t="n">
-        <v>174.293919145045</v>
+        <v>175.325517157402</v>
       </c>
       <c r="D186" t="n">
-        <v>156.740013225019</v>
+        <v>150.482985551859</v>
       </c>
       <c r="E186" t="n">
-        <v>194.38818772065</v>
+        <v>202.10152417708</v>
       </c>
       <c r="F186" t="n">
         <v>1891</v>
@@ -7845,13 +7845,13 @@
         <v>61</v>
       </c>
       <c r="C187" t="n">
-        <v>268.630162538669</v>
+        <v>265.222976043406</v>
       </c>
       <c r="D187" t="n">
-        <v>244.848832159685</v>
+        <v>234.186119509508</v>
       </c>
       <c r="E187" t="n">
-        <v>292.576190646417</v>
+        <v>305.141478478836</v>
       </c>
       <c r="F187" t="n">
         <v>1891</v>
@@ -7883,13 +7883,13 @@
         <v>62</v>
       </c>
       <c r="C188" t="n">
-        <v>693.316166130785</v>
+        <v>697.803885808995</v>
       </c>
       <c r="D188" t="n">
-        <v>646.789786823113</v>
+        <v>616.028466803359</v>
       </c>
       <c r="E188" t="n">
-        <v>738.71258928906</v>
+        <v>792.486256002193</v>
       </c>
       <c r="F188" t="n">
         <v>1891</v>
@@ -7921,13 +7921,13 @@
         <v>63</v>
       </c>
       <c r="C189" t="n">
-        <v>76.1161517414961</v>
+        <v>76.7383452858498</v>
       </c>
       <c r="D189" t="n">
-        <v>65.3839432340953</v>
+        <v>64.3121352469893</v>
       </c>
       <c r="E189" t="n">
-        <v>88.1453022454927</v>
+        <v>92.1695994833249</v>
       </c>
       <c r="F189" t="n">
         <v>1891</v>
@@ -7959,13 +7959,13 @@
         <v>64</v>
       </c>
       <c r="C190" t="n">
-        <v>193.811980215011</v>
+        <v>193.261452662094</v>
       </c>
       <c r="D190" t="n">
-        <v>174.799797648253</v>
+        <v>166.167528893416</v>
       </c>
       <c r="E190" t="n">
-        <v>215.981023431647</v>
+        <v>222.795281441438</v>
       </c>
       <c r="F190" t="n">
         <v>1891</v>
@@ -7997,13 +7997,13 @@
         <v>65</v>
       </c>
       <c r="C191" t="n">
-        <v>194.509667814243</v>
+        <v>194.70122367539</v>
       </c>
       <c r="D191" t="n">
-        <v>174.773325564319</v>
+        <v>169.587777861857</v>
       </c>
       <c r="E191" t="n">
-        <v>216.174731096063</v>
+        <v>225.884465324863</v>
       </c>
       <c r="F191" t="n">
         <v>1891</v>
@@ -8035,13 +8035,13 @@
         <v>66</v>
       </c>
       <c r="C192" t="n">
-        <v>280.404393709819</v>
+        <v>278.30832152425</v>
       </c>
       <c r="D192" t="n">
-        <v>256.939049521171</v>
+        <v>244.273193410651</v>
       </c>
       <c r="E192" t="n">
-        <v>303.810456539701</v>
+        <v>317.95193287993</v>
       </c>
       <c r="F192" t="n">
         <v>1891</v>
@@ -8073,13 +8073,13 @@
         <v>67</v>
       </c>
       <c r="C193" t="n">
-        <v>262.283522796967</v>
+        <v>261.114533267623</v>
       </c>
       <c r="D193" t="n">
-        <v>241.82925315848</v>
+        <v>227.248265960567</v>
       </c>
       <c r="E193" t="n">
-        <v>285.194460203399</v>
+        <v>297.337838722797</v>
       </c>
       <c r="F193" t="n">
         <v>1891</v>
@@ -8111,13 +8111,13 @@
         <v>68</v>
       </c>
       <c r="C194" t="n">
-        <v>211.675925237509</v>
+        <v>211.7490555505</v>
       </c>
       <c r="D194" t="n">
-        <v>192.067540008727</v>
+        <v>184.068592263767</v>
       </c>
       <c r="E194" t="n">
-        <v>231.868341115358</v>
+        <v>243.759424478733</v>
       </c>
       <c r="F194" t="n">
         <v>1891</v>
@@ -8149,13 +8149,13 @@
         <v>69</v>
       </c>
       <c r="C195" t="n">
-        <v>322.573801144005</v>
+        <v>322.340074677446</v>
       </c>
       <c r="D195" t="n">
-        <v>298.18769797466</v>
+        <v>284.067869091501</v>
       </c>
       <c r="E195" t="n">
-        <v>348.057128542948</v>
+        <v>370.013643716259</v>
       </c>
       <c r="F195" t="n">
         <v>1891</v>
@@ -8187,13 +8187,13 @@
         <v>70</v>
       </c>
       <c r="C196" t="n">
-        <v>92.1570097262617</v>
+        <v>93.1931115881063</v>
       </c>
       <c r="D196" t="n">
-        <v>79.8813737933456</v>
+        <v>78.8248705515699</v>
       </c>
       <c r="E196" t="n">
-        <v>107.390351494859</v>
+        <v>108.792549858786</v>
       </c>
       <c r="F196" t="n">
         <v>1891</v>
@@ -8225,13 +8225,13 @@
         <v>71</v>
       </c>
       <c r="C197" t="n">
-        <v>81.8993733688797</v>
+        <v>82.056859239573</v>
       </c>
       <c r="D197" t="n">
-        <v>70.6598364460197</v>
+        <v>69.3342134594283</v>
       </c>
       <c r="E197" t="n">
-        <v>93.5442511114687</v>
+        <v>96.8964295698276</v>
       </c>
       <c r="F197" t="n">
         <v>1891</v>
@@ -8263,13 +8263,13 @@
         <v>72</v>
       </c>
       <c r="C198" t="n">
-        <v>224.176260911849</v>
+        <v>229.401126810711</v>
       </c>
       <c r="D198" t="n">
-        <v>203.375900597832</v>
+        <v>199.623620634892</v>
       </c>
       <c r="E198" t="n">
-        <v>247.247923768371</v>
+        <v>264.775464148414</v>
       </c>
       <c r="F198" t="n">
         <v>1891</v>
@@ -8301,13 +8301,13 @@
         <v>73</v>
       </c>
       <c r="C199" t="n">
-        <v>626.78693575979</v>
+        <v>598.965327582265</v>
       </c>
       <c r="D199" t="n">
-        <v>589.918476760513</v>
+        <v>528.442510793966</v>
       </c>
       <c r="E199" t="n">
-        <v>667.223946590006</v>
+        <v>682.82845146355</v>
       </c>
       <c r="F199" t="n">
         <v>1891</v>
@@ -8339,13 +8339,13 @@
         <v>74</v>
       </c>
       <c r="C200" t="n">
-        <v>120.249937188226</v>
+        <v>118.080333591294</v>
       </c>
       <c r="D200" t="n">
-        <v>105.181383158459</v>
+        <v>99.328833804518</v>
       </c>
       <c r="E200" t="n">
-        <v>134.818378531878</v>
+        <v>138.279510907208</v>
       </c>
       <c r="F200" t="n">
         <v>1891</v>
@@ -8377,13 +8377,13 @@
         <v>75</v>
       </c>
       <c r="C201" t="n">
-        <v>48.6716595101779</v>
+        <v>47.9112361208887</v>
       </c>
       <c r="D201" t="n">
-        <v>40.3530787174988</v>
+        <v>39.9955811713547</v>
       </c>
       <c r="E201" t="n">
-        <v>58.0472775791804</v>
+        <v>58.5889837652856</v>
       </c>
       <c r="F201" t="n">
         <v>1891</v>
@@ -8415,13 +8415,13 @@
         <v>76</v>
       </c>
       <c r="C202" t="n">
-        <v>591.191336479361</v>
+        <v>577.957379119403</v>
       </c>
       <c r="D202" t="n">
-        <v>552.44233310663</v>
+        <v>510.799028747074</v>
       </c>
       <c r="E202" t="n">
-        <v>633.33029629115</v>
+        <v>657.739944214424</v>
       </c>
       <c r="F202" t="n">
         <v>1891</v>
@@ -8453,13 +8453,13 @@
         <v>77</v>
       </c>
       <c r="C203" t="n">
-        <v>192.488285463107</v>
+        <v>189.227616327315</v>
       </c>
       <c r="D203" t="n">
-        <v>172.572197797821</v>
+        <v>164.304894248706</v>
       </c>
       <c r="E203" t="n">
-        <v>213.747404765408</v>
+        <v>218.394267258433</v>
       </c>
       <c r="F203" t="n">
         <v>1891</v>
@@ -8491,13 +8491,13 @@
         <v>78</v>
       </c>
       <c r="C204" t="n">
-        <v>437.295262249473</v>
+        <v>426.749303274145</v>
       </c>
       <c r="D204" t="n">
-        <v>406.440246814142</v>
+        <v>377.709848018872</v>
       </c>
       <c r="E204" t="n">
-        <v>468.853337790808</v>
+        <v>487.026565336584</v>
       </c>
       <c r="F204" t="n">
         <v>1891</v>
@@ -8529,13 +8529,13 @@
         <v>79</v>
       </c>
       <c r="C205" t="n">
-        <v>286.272387867803</v>
+        <v>279.934996765811</v>
       </c>
       <c r="D205" t="n">
-        <v>260.834469823765</v>
+        <v>246.472506006359</v>
       </c>
       <c r="E205" t="n">
-        <v>312.068073561555</v>
+        <v>322.948699972755</v>
       </c>
       <c r="F205" t="n">
         <v>1891</v>
@@ -8567,13 +8567,13 @@
         <v>80</v>
       </c>
       <c r="C206" t="n">
-        <v>437.025280509151</v>
+        <v>442.845793060968</v>
       </c>
       <c r="D206" t="n">
-        <v>405.693880984993</v>
+        <v>391.927792364962</v>
       </c>
       <c r="E206" t="n">
-        <v>471.168664562539</v>
+        <v>500.785734853661</v>
       </c>
       <c r="F206" t="n">
         <v>1891</v>
@@ -8605,13 +8605,13 @@
         <v>81</v>
       </c>
       <c r="C207" t="n">
-        <v>231.693688759752</v>
+        <v>237.581818366271</v>
       </c>
       <c r="D207" t="n">
-        <v>210.184124529921</v>
+        <v>205.003025293273</v>
       </c>
       <c r="E207" t="n">
-        <v>253.471585687256</v>
+        <v>273.350431147084</v>
       </c>
       <c r="F207" t="n">
         <v>1891</v>
@@ -8643,13 +8643,13 @@
         <v>82</v>
       </c>
       <c r="C208" t="n">
-        <v>1744.8843816551</v>
+        <v>1754.73866497973</v>
       </c>
       <c r="D208" t="n">
-        <v>1661.83562024197</v>
+        <v>1563.01271865325</v>
       </c>
       <c r="E208" t="n">
-        <v>1830.41435528893</v>
+        <v>1979.30150693163</v>
       </c>
       <c r="F208" t="n">
         <v>1891</v>
@@ -8681,13 +8681,13 @@
         <v>83</v>
       </c>
       <c r="C209" t="n">
-        <v>239.864631703851</v>
+        <v>241.771666678128</v>
       </c>
       <c r="D209" t="n">
-        <v>218.189904254623</v>
+        <v>209.802863675104</v>
       </c>
       <c r="E209" t="n">
-        <v>261.306178166477</v>
+        <v>277.68509630124</v>
       </c>
       <c r="F209" t="n">
         <v>1891</v>
@@ -8719,13 +8719,13 @@
         <v>84</v>
       </c>
       <c r="C210" t="n">
-        <v>312.713113485216</v>
+        <v>308.60962558833</v>
       </c>
       <c r="D210" t="n">
-        <v>289.041207811962</v>
+        <v>266.777812359526</v>
       </c>
       <c r="E210" t="n">
-        <v>339.182894135625</v>
+        <v>351.351060146237</v>
       </c>
       <c r="F210" t="n">
         <v>1891</v>
@@ -8757,13 +8757,13 @@
         <v>85</v>
       </c>
       <c r="C211" t="n">
-        <v>463.07794612812</v>
+        <v>435.18066011256</v>
       </c>
       <c r="D211" t="n">
-        <v>429.083453962084</v>
+        <v>378.859473988283</v>
       </c>
       <c r="E211" t="n">
-        <v>498.845569782702</v>
+        <v>492.456185097425</v>
       </c>
       <c r="F211" t="n">
         <v>1891</v>
@@ -8795,13 +8795,13 @@
         <v>86</v>
       </c>
       <c r="C212" t="n">
-        <v>743.253258437662</v>
+        <v>750.92759088385</v>
       </c>
       <c r="D212" t="n">
-        <v>700.177457806107</v>
+        <v>663.917343210167</v>
       </c>
       <c r="E212" t="n">
-        <v>789.544917260038</v>
+        <v>850.422914134236</v>
       </c>
       <c r="F212" t="n">
         <v>1891</v>
@@ -8833,13 +8833,13 @@
         <v>87</v>
       </c>
       <c r="C213" t="n">
-        <v>101.563126305254</v>
+        <v>101.401061025105</v>
       </c>
       <c r="D213" t="n">
-        <v>88.9819096882599</v>
+        <v>86.1796201397488</v>
       </c>
       <c r="E213" t="n">
-        <v>115.681174831781</v>
+        <v>118.356233300531</v>
       </c>
       <c r="F213" t="n">
         <v>1891</v>
@@ -8871,13 +8871,13 @@
         <v>88</v>
       </c>
       <c r="C214" t="n">
-        <v>208.300503266342</v>
+        <v>229.40107275992</v>
       </c>
       <c r="D214" t="n">
-        <v>188.133808279235</v>
+        <v>197.24374180329</v>
       </c>
       <c r="E214" t="n">
-        <v>229.592589998902</v>
+        <v>272.442855078874</v>
       </c>
       <c r="F214" t="n">
         <v>1891</v>
@@ -8909,13 +8909,13 @@
         <v>89</v>
       </c>
       <c r="C215" t="n">
-        <v>393.546430793544</v>
+        <v>388.204494653954</v>
       </c>
       <c r="D215" t="n">
-        <v>363.69734907648</v>
+        <v>344.745145683791</v>
       </c>
       <c r="E215" t="n">
-        <v>423.25857331387</v>
+        <v>445.22401127979</v>
       </c>
       <c r="F215" t="n">
         <v>1891</v>
@@ -8947,13 +8947,13 @@
         <v>90</v>
       </c>
       <c r="C216" t="n">
-        <v>200.463515337124</v>
+        <v>200.344979751768</v>
       </c>
       <c r="D216" t="n">
-        <v>180.733585804225</v>
+        <v>171.91583385741</v>
       </c>
       <c r="E216" t="n">
-        <v>222.960759119887</v>
+        <v>233.485290838259</v>
       </c>
       <c r="F216" t="n">
         <v>1891</v>
@@ -8985,13 +8985,13 @@
         <v>91</v>
       </c>
       <c r="C217" t="n">
-        <v>717.911178224381</v>
+        <v>715.264169900725</v>
       </c>
       <c r="D217" t="n">
-        <v>673.433141625702</v>
+        <v>625.656388914298</v>
       </c>
       <c r="E217" t="n">
-        <v>760.851196088873</v>
+        <v>798.029815998656</v>
       </c>
       <c r="F217" t="n">
         <v>1891</v>
@@ -9023,13 +9023,13 @@
         <v>92</v>
       </c>
       <c r="C218" t="n">
-        <v>426.367381575675</v>
+        <v>432.285969168961</v>
       </c>
       <c r="D218" t="n">
-        <v>394.222628307487</v>
+        <v>376.893632192999</v>
       </c>
       <c r="E218" t="n">
-        <v>457.742036469899</v>
+        <v>495.724152426172</v>
       </c>
       <c r="F218" t="n">
         <v>1891</v>
@@ -9061,13 +9061,13 @@
         <v>93</v>
       </c>
       <c r="C219" t="n">
-        <v>299.139046809592</v>
+        <v>285.569484215302</v>
       </c>
       <c r="D219" t="n">
-        <v>274.504521748047</v>
+        <v>248.616947795066</v>
       </c>
       <c r="E219" t="n">
-        <v>325.740989228773</v>
+        <v>327.834859730106</v>
       </c>
       <c r="F219" t="n">
         <v>1891</v>
@@ -9099,13 +9099,13 @@
         <v>94</v>
       </c>
       <c r="C220" t="n">
-        <v>29.0902765081821</v>
+        <v>29.1386905879616</v>
       </c>
       <c r="D220" t="n">
-        <v>22.9620812607864</v>
+        <v>23.4311311597597</v>
       </c>
       <c r="E220" t="n">
-        <v>35.9901786565379</v>
+        <v>36.0628852026545</v>
       </c>
       <c r="F220" t="n">
         <v>1891</v>
@@ -9137,13 +9137,13 @@
         <v>95</v>
       </c>
       <c r="C221" t="n">
-        <v>449.12086569027</v>
+        <v>441.98664049726</v>
       </c>
       <c r="D221" t="n">
-        <v>418.984033472134</v>
+        <v>387.918076756306</v>
       </c>
       <c r="E221" t="n">
-        <v>481.327310331908</v>
+        <v>501.409366080838</v>
       </c>
       <c r="F221" t="n">
         <v>1891</v>
@@ -9175,13 +9175,13 @@
         <v>96</v>
       </c>
       <c r="C222" t="n">
-        <v>437.802787318543</v>
+        <v>439.694142234423</v>
       </c>
       <c r="D222" t="n">
-        <v>406.238745856631</v>
+        <v>385.112796753941</v>
       </c>
       <c r="E222" t="n">
-        <v>471.771435433041</v>
+        <v>499.398290266434</v>
       </c>
       <c r="F222" t="n">
         <v>1891</v>
@@ -9213,13 +9213,13 @@
         <v>97</v>
       </c>
       <c r="C223" t="n">
-        <v>489.685642177839</v>
+        <v>492.576051160662</v>
       </c>
       <c r="D223" t="n">
-        <v>456.124127430232</v>
+        <v>433.633729823784</v>
       </c>
       <c r="E223" t="n">
-        <v>526.813465994393</v>
+        <v>562.349630942554</v>
       </c>
       <c r="F223" t="n">
         <v>1891</v>
@@ -9251,13 +9251,13 @@
         <v>98</v>
       </c>
       <c r="C224" t="n">
-        <v>179.91854148789</v>
+        <v>182.11644456999</v>
       </c>
       <c r="D224" t="n">
-        <v>161.068321711383</v>
+        <v>158.551743443595</v>
       </c>
       <c r="E224" t="n">
-        <v>199.192373789666</v>
+        <v>211.066351573478</v>
       </c>
       <c r="F224" t="n">
         <v>1891</v>
@@ -9289,13 +9289,13 @@
         <v>99</v>
       </c>
       <c r="C225" t="n">
-        <v>282.496887664632</v>
+        <v>283.614760947681</v>
       </c>
       <c r="D225" t="n">
-        <v>259.502064274462</v>
+        <v>245.837732634369</v>
       </c>
       <c r="E225" t="n">
-        <v>308.195377625735</v>
+        <v>322.488642852407</v>
       </c>
       <c r="F225" t="n">
         <v>1891</v>
@@ -9327,13 +9327,13 @@
         <v>100</v>
       </c>
       <c r="C226" t="n">
-        <v>136.267847899765</v>
+        <v>137.77206982192</v>
       </c>
       <c r="D226" t="n">
-        <v>121.55604153232</v>
+        <v>118.170306719766</v>
       </c>
       <c r="E226" t="n">
-        <v>154.271868422272</v>
+        <v>160.414669812717</v>
       </c>
       <c r="F226" t="n">
         <v>1891</v>
@@ -9365,13 +9365,13 @@
         <v>101</v>
       </c>
       <c r="C227" t="n">
-        <v>405.138440657931</v>
+        <v>402.674551065073</v>
       </c>
       <c r="D227" t="n">
-        <v>374.322406592668</v>
+        <v>350.853602236323</v>
       </c>
       <c r="E227" t="n">
-        <v>437.93932921122</v>
+        <v>456.733426707148</v>
       </c>
       <c r="F227" t="n">
         <v>1891</v>
@@ -9403,13 +9403,13 @@
         <v>102</v>
       </c>
       <c r="C228" t="n">
-        <v>368.034716405736</v>
+        <v>369.136441035912</v>
       </c>
       <c r="D228" t="n">
-        <v>340.491086206205</v>
+        <v>323.684834149629</v>
       </c>
       <c r="E228" t="n">
-        <v>397.437066606277</v>
+        <v>422.660030865345</v>
       </c>
       <c r="F228" t="n">
         <v>1891</v>
@@ -9441,13 +9441,13 @@
         <v>103</v>
       </c>
       <c r="C229" t="n">
-        <v>163.15284961164</v>
+        <v>179.324190883787</v>
       </c>
       <c r="D229" t="n">
-        <v>144.790215407342</v>
+        <v>154.060555287959</v>
       </c>
       <c r="E229" t="n">
-        <v>182.847557136566</v>
+        <v>214.222016400794</v>
       </c>
       <c r="F229" t="n">
         <v>1891</v>
@@ -9479,13 +9479,13 @@
         <v>104</v>
       </c>
       <c r="C230" t="n">
-        <v>388.120957244897</v>
+        <v>393.485053678925</v>
       </c>
       <c r="D230" t="n">
-        <v>355.700025226198</v>
+        <v>340.832902521213</v>
       </c>
       <c r="E230" t="n">
-        <v>419.225352914439</v>
+        <v>451.143793917609</v>
       </c>
       <c r="F230" t="n">
         <v>1891</v>
@@ -9517,13 +9517,13 @@
         <v>105</v>
       </c>
       <c r="C231" t="n">
-        <v>2331.33026089185</v>
+        <v>2320.91634882879</v>
       </c>
       <c r="D231" t="n">
-        <v>2224.31137938215</v>
+        <v>2063.88813575431</v>
       </c>
       <c r="E231" t="n">
-        <v>2436.72103450066</v>
+        <v>2611.03030122323</v>
       </c>
       <c r="F231" t="n">
         <v>1891</v>
@@ -9555,13 +9555,13 @@
         <v>106</v>
       </c>
       <c r="C232" t="n">
-        <v>182.8394826056</v>
+        <v>182.364435931319</v>
       </c>
       <c r="D232" t="n">
-        <v>164.294197598932</v>
+        <v>157.462215866606</v>
       </c>
       <c r="E232" t="n">
-        <v>203.250279746402</v>
+        <v>211.275980661229</v>
       </c>
       <c r="F232" t="n">
         <v>1891</v>
@@ -9593,13 +9593,13 @@
         <v>107</v>
       </c>
       <c r="C233" t="n">
-        <v>278.65189994876</v>
+        <v>276.28569283365</v>
       </c>
       <c r="D233" t="n">
-        <v>253.19362280575</v>
+        <v>241.171209920756</v>
       </c>
       <c r="E233" t="n">
-        <v>303.494932730216</v>
+        <v>315.792920597912</v>
       </c>
       <c r="F233" t="n">
         <v>1891</v>
@@ -9631,13 +9631,13 @@
         <v>108</v>
       </c>
       <c r="C234" t="n">
-        <v>265.541491151856</v>
+        <v>260.436017870406</v>
       </c>
       <c r="D234" t="n">
-        <v>242.74002786426</v>
+        <v>228.383083784948</v>
       </c>
       <c r="E234" t="n">
-        <v>290.577823629163</v>
+        <v>300.037325178852</v>
       </c>
       <c r="F234" t="n">
         <v>1891</v>
@@ -9669,13 +9669,13 @@
         <v>109</v>
       </c>
       <c r="C235" t="n">
-        <v>214.983021596751</v>
+        <v>219.689485918534</v>
       </c>
       <c r="D235" t="n">
-        <v>194.660607859736</v>
+        <v>192.7159992141</v>
       </c>
       <c r="E235" t="n">
-        <v>237.366460258758</v>
+        <v>253.861782286584</v>
       </c>
       <c r="F235" t="n">
         <v>1891</v>
@@ -9707,13 +9707,13 @@
         <v>110</v>
       </c>
       <c r="C236" t="n">
-        <v>385.063642471411</v>
+        <v>382.538927809161</v>
       </c>
       <c r="D236" t="n">
-        <v>357.810571548306</v>
+        <v>337.351222293692</v>
       </c>
       <c r="E236" t="n">
-        <v>415.01431978493</v>
+        <v>431.650076319865</v>
       </c>
       <c r="F236" t="n">
         <v>1891</v>
@@ -9745,13 +9745,13 @@
         <v>111</v>
       </c>
       <c r="C237" t="n">
-        <v>91.7105396737125</v>
+        <v>91.5195516246909</v>
       </c>
       <c r="D237" t="n">
-        <v>78.7633886015557</v>
+        <v>77.0305871918148</v>
       </c>
       <c r="E237" t="n">
-        <v>104.421021797263</v>
+        <v>109.21145197571</v>
       </c>
       <c r="F237" t="n">
         <v>1891</v>
@@ -9783,13 +9783,13 @@
         <v>112</v>
       </c>
       <c r="C238" t="n">
-        <v>252.515333738243</v>
+        <v>257.805935057475</v>
       </c>
       <c r="D238" t="n">
-        <v>228.674065717302</v>
+        <v>225.646957371939</v>
       </c>
       <c r="E238" t="n">
-        <v>276.145879226936</v>
+        <v>296.903072055167</v>
       </c>
       <c r="F238" t="n">
         <v>1891</v>
@@ -9821,13 +9821,13 @@
         <v>113</v>
       </c>
       <c r="C239" t="n">
-        <v>284.655283638664</v>
+        <v>291.233249850996</v>
       </c>
       <c r="D239" t="n">
-        <v>261.326425289821</v>
+        <v>252.083538427055</v>
       </c>
       <c r="E239" t="n">
-        <v>310.462060504381</v>
+        <v>334.711235480251</v>
       </c>
       <c r="F239" t="n">
         <v>1891</v>
@@ -9859,13 +9859,13 @@
         <v>114</v>
       </c>
       <c r="C240" t="n">
-        <v>506.868679539929</v>
+        <v>510.815862832394</v>
       </c>
       <c r="D240" t="n">
-        <v>473.494011137379</v>
+        <v>444.568080323189</v>
       </c>
       <c r="E240" t="n">
-        <v>542.700838060511</v>
+        <v>578.143748000628</v>
       </c>
       <c r="F240" t="n">
         <v>1891</v>
@@ -9897,13 +9897,13 @@
         <v>115</v>
       </c>
       <c r="C241" t="n">
-        <v>238.309651709257</v>
+        <v>231.75244732926</v>
       </c>
       <c r="D241" t="n">
-        <v>215.696555805452</v>
+        <v>200.606246600141</v>
       </c>
       <c r="E241" t="n">
-        <v>260.605497256927</v>
+        <v>266.490621822392</v>
       </c>
       <c r="F241" t="n">
         <v>1891</v>
@@ -9935,13 +9935,13 @@
         <v>116</v>
       </c>
       <c r="C242" t="n">
-        <v>176.495985147242</v>
+        <v>173.897682976997</v>
       </c>
       <c r="D242" t="n">
-        <v>157.30692647481</v>
+        <v>151.417940568858</v>
       </c>
       <c r="E242" t="n">
-        <v>194.576747246914</v>
+        <v>201.72526547374</v>
       </c>
       <c r="F242" t="n">
         <v>1891</v>
@@ -9973,13 +9973,13 @@
         <v>117</v>
       </c>
       <c r="C243" t="n">
-        <v>106.464270016935</v>
+        <v>106.384027746975</v>
       </c>
       <c r="D243" t="n">
-        <v>93.1182338165377</v>
+        <v>89.8146326948016</v>
       </c>
       <c r="E243" t="n">
-        <v>120.896930901564</v>
+        <v>126.448137051493</v>
       </c>
       <c r="F243" t="n">
         <v>1891</v>
@@ -10011,13 +10011,13 @@
         <v>118</v>
       </c>
       <c r="C244" t="n">
-        <v>656.774943411579</v>
+        <v>639.646061674004</v>
       </c>
       <c r="D244" t="n">
-        <v>613.76224513901</v>
+        <v>565.245277535699</v>
       </c>
       <c r="E244" t="n">
-        <v>695.74622756524</v>
+        <v>728.630215265612</v>
       </c>
       <c r="F244" t="n">
         <v>1891</v>
@@ -10049,13 +10049,13 @@
         <v>119</v>
       </c>
       <c r="C245" t="n">
-        <v>148.835477791392</v>
+        <v>148.750066546276</v>
       </c>
       <c r="D245" t="n">
-        <v>132.527597305827</v>
+        <v>128.050502321499</v>
       </c>
       <c r="E245" t="n">
-        <v>166.685126622764</v>
+        <v>172.07216848466</v>
       </c>
       <c r="F245" t="n">
         <v>1891</v>
@@ -10087,13 +10087,13 @@
         <v>120</v>
       </c>
       <c r="C246" t="n">
-        <v>210.982597865033</v>
+        <v>213.730624285666</v>
       </c>
       <c r="D246" t="n">
-        <v>191.376512287235</v>
+        <v>184.432650316418</v>
       </c>
       <c r="E246" t="n">
-        <v>232.233981368911</v>
+        <v>246.961688344332</v>
       </c>
       <c r="F246" t="n">
         <v>1891</v>
@@ -10125,13 +10125,13 @@
         <v>121</v>
       </c>
       <c r="C247" t="n">
-        <v>831.581273881376</v>
+        <v>815.191459242575</v>
       </c>
       <c r="D247" t="n">
-        <v>785.138478285218</v>
+        <v>722.050988631833</v>
       </c>
       <c r="E247" t="n">
-        <v>876.44241108148</v>
+        <v>926.89874027279</v>
       </c>
       <c r="F247" t="n">
         <v>1891</v>
@@ -10163,13 +10163,13 @@
         <v>122</v>
       </c>
       <c r="C248" t="n">
-        <v>341.212867314117</v>
+        <v>345.005922042442</v>
       </c>
       <c r="D248" t="n">
-        <v>313.878792814701</v>
+        <v>300.343006805231</v>
       </c>
       <c r="E248" t="n">
-        <v>372.909997920416</v>
+        <v>393.304697561498</v>
       </c>
       <c r="F248" t="n">
         <v>1891</v>
@@ -10201,13 +10201,13 @@
         <v>123</v>
       </c>
       <c r="C249" t="n">
-        <v>706.893523786821</v>
+        <v>710.315829875743</v>
       </c>
       <c r="D249" t="n">
-        <v>665.143275418166</v>
+        <v>625.105765383643</v>
       </c>
       <c r="E249" t="n">
-        <v>753.753456730004</v>
+        <v>809.966339512756</v>
       </c>
       <c r="F249" t="n">
         <v>1891</v>
@@ -10239,13 +10239,13 @@
         <v>124</v>
       </c>
       <c r="C250" t="n">
-        <v>864.820715336802</v>
+        <v>849.422213627467</v>
       </c>
       <c r="D250" t="n">
-        <v>814.964443833578</v>
+        <v>751.201804938965</v>
       </c>
       <c r="E250" t="n">
-        <v>915.854506048058</v>
+        <v>954.792481439872</v>
       </c>
       <c r="F250" t="n">
         <v>1891</v>
@@ -10277,13 +10277,13 @@
         <v>125</v>
       </c>
       <c r="C251" t="n">
-        <v>2203.94037883112</v>
+        <v>2186.40824429562</v>
       </c>
       <c r="D251" t="n">
-        <v>2106.4468723487</v>
+        <v>1937.38953785563</v>
       </c>
       <c r="E251" t="n">
-        <v>2302.02460944799</v>
+        <v>2449.43128177081</v>
       </c>
       <c r="F251" t="n">
         <v>1891</v>
@@ -10315,13 +10315,13 @@
         <v>126</v>
       </c>
       <c r="C252" t="n">
-        <v>572.901323806893</v>
+        <v>575.782062442941</v>
       </c>
       <c r="D252" t="n">
-        <v>537.20586000288</v>
+        <v>507.92734781359</v>
       </c>
       <c r="E252" t="n">
-        <v>614.579415612537</v>
+        <v>651.474517561791</v>
       </c>
       <c r="F252" t="n">
         <v>1891</v>
@@ -10353,13 +10353,13 @@
         <v>127</v>
       </c>
       <c r="C253" t="n">
-        <v>264.638764715831</v>
+        <v>269.296348564521</v>
       </c>
       <c r="D253" t="n">
-        <v>241.99949349318</v>
+        <v>237.31226775377</v>
       </c>
       <c r="E253" t="n">
-        <v>290.975267058252</v>
+        <v>308.917390064868</v>
       </c>
       <c r="F253" t="n">
         <v>1891</v>
@@ -10391,13 +10391,13 @@
         <v>128</v>
       </c>
       <c r="C254" t="n">
-        <v>419.660184622393</v>
+        <v>412.617837415554</v>
       </c>
       <c r="D254" t="n">
-        <v>391.083673915015</v>
+        <v>359.070747336065</v>
       </c>
       <c r="E254" t="n">
-        <v>451.980320162561</v>
+        <v>468.177848147008</v>
       </c>
       <c r="F254" t="n">
         <v>1891</v>
@@ -10429,13 +10429,13 @@
         <v>130</v>
       </c>
       <c r="C255" t="n">
-        <v>211.731151516462</v>
+        <v>212.228444800221</v>
       </c>
       <c r="D255" t="n">
-        <v>191.445141401938</v>
+        <v>183.693300874346</v>
       </c>
       <c r="E255" t="n">
-        <v>233.151754599661</v>
+        <v>244.157688908244</v>
       </c>
       <c r="F255" t="n">
         <v>1891</v>
